--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\escuela1\qualtcom\Organizacional\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\proyecto\qualtcom\Organizacional\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,13 +420,13 @@
     <t>Calendario_preventivo</t>
   </si>
   <si>
-    <t>Respaldos Se realizan cada semana en dias viernes, Dichos respaldos generan un comprimido semanal con los archivos agregados hasta la fecha y se versionan en el repositorio de GITHUB con el comentario 'respaldo de sistema' cuyo responsible de generar dicha actividad sera : Jovanny Zepeda</t>
-  </si>
-  <si>
     <t>Mantis</t>
   </si>
   <si>
     <t>192.168.220.112/xampp/mantis(Red local qualtop)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respaldos Se realizan cada semana en dias viernes, Dichos respaldos generan un comprimido semanal con los archivos agregados hasta la fecha y se versionan en el repositorio de GITHUB con el comentario 'respaldo de sistema' cuyo responsible de generar dicha actividad sera : Jovanny Zepeda </t>
   </si>
 </sst>
 </file>
@@ -827,6 +827,42 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -836,44 +872,8 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="B63" sqref="B63:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,11 +1303,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
@@ -1316,19 +1316,19 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1370,11 +1370,11 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -1428,11 +1428,11 @@
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1476,11 +1476,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1504,11 +1504,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
@@ -1538,11 +1538,11 @@
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
@@ -1560,11 +1560,11 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1576,11 +1576,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -1709,11 +1709,11 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
@@ -1727,11 +1727,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
@@ -1755,22 +1755,22 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1780,22 +1780,22 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1805,17 +1805,17 @@
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="48"/>
+      <c r="B63" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="46"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1869,10 +1869,10 @@
     </row>
     <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>129</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>57</v>
@@ -2325,17 +2325,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B59:C60"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B27:D27"/>
@@ -2343,6 +2332,17 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -193,9 +193,6 @@
     <t>GITHUB</t>
   </si>
   <si>
-    <t>https://github.com/jovannyzepeda/escuela1</t>
-  </si>
-  <si>
     <t>Sistema de versionado de documentos que respalda todos los cambios generados en un repositorio a nivel nube, este método depende del uso de llaves SSH para la transferencia de archivos.</t>
   </si>
   <si>
@@ -423,17 +420,20 @@
     <t>Mantis</t>
   </si>
   <si>
-    <t>192.168.220.112/xampp/mantis(Red local qualtop)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Respaldos Se realizan cada semana en dias viernes, Dichos respaldos generan un comprimido semanal con los archivos agregados hasta la fecha y se versionan en el repositorio de GITHUB con el comentario 'respaldo de sistema' cuyo responsible de generar dicha actividad sera : Jovanny Zepeda </t>
+  </si>
+  <si>
+    <t>192.168.220.88/xampp/mantis(Red local qualtop)</t>
+  </si>
+  <si>
+    <t>https://github.com/jovannyzepeda/qtp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -553,6 +553,14 @@
       <i/>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -725,10 +733,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,10 +836,46 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,44 +884,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1250,7 +1263,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:C63"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,11 +1316,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
@@ -1316,19 +1329,19 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1370,11 +1383,11 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -1382,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="36"/>
     </row>
@@ -1392,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="36"/>
     </row>
@@ -1402,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="36"/>
     </row>
@@ -1412,27 +1425,27 @@
         <v>12</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>108</v>
       </c>
       <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1467,20 +1480,20 @@
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1504,11 +1517,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
@@ -1538,11 +1551,11 @@
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
@@ -1560,11 +1573,11 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1576,11 +1589,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -1596,7 +1609,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -1605,7 +1618,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="15"/>
     </row>
@@ -1614,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="15"/>
     </row>
@@ -1623,16 +1636,16 @@
         <v>38</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -1648,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="17"/>
     </row>
@@ -1665,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="20"/>
     </row>
@@ -1682,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="20"/>
     </row>
@@ -1699,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="20"/>
     </row>
@@ -1709,11 +1722,11 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
@@ -1727,11 +1740,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
     </row>
     <row r="51" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
@@ -1755,22 +1768,22 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1780,22 +1793,22 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="53"/>
+      <c r="B59" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1805,17 +1818,17 @@
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="46"/>
+      <c r="B63" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="48"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1860,22 +1873,22 @@
       <c r="B70" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="34" t="s">
         <v>128</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2325,6 +2338,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B59:C60"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B27:D27"/>
@@ -2332,20 +2356,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C70" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2372,36 +2388,36 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -2409,100 +2425,100 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="I9" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2510,21 +2526,21 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="J11">
         <v>51</v>
@@ -2532,13 +2548,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="I12" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="J12">
         <v>50</v>
@@ -2546,18 +2562,18 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -2567,12 +2583,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -394,9 +394,6 @@
     <t>Mecanismos para la generacion de la linea base</t>
   </si>
   <si>
-    <t>Seleccion de los archivos dentro de la terminal git, para agregarlos es necesario ejegutar el comando git add + nombre del archivo linea base , posteriormente se ingresan en una rama secundario del repositorio con el comando git push origin Linea_base</t>
-  </si>
-  <si>
     <r>
       <t>PTL</t>
     </r>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>https://github.com/jovannyzepeda/qtp</t>
+  </si>
+  <si>
+    <t>Seleccion de los archivos dentro de la terminal git, para agregarlos es necesario ejegutar el comando git add + nombre del archivo linea base , posteriormente se ingresan en una rama secundario del repositorio con el comando git push origin base</t>
   </si>
 </sst>
 </file>
@@ -836,6 +836,45 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -845,47 +884,8 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1316,11 +1316,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
@@ -1329,19 +1329,19 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1383,11 +1383,11 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -1441,11 +1441,11 @@
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1489,11 +1489,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1517,11 +1517,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
@@ -1551,11 +1551,11 @@
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
@@ -1573,11 +1573,11 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1589,11 +1589,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -1642,10 +1642,10 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -1722,11 +1722,11 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
@@ -1740,11 +1740,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
@@ -1768,15 +1768,15 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="50" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="27"/>
@@ -1793,15 +1793,15 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="54"/>
       <c r="D59" s="24"/>
@@ -1818,17 +1818,17 @@
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="48"/>
+      <c r="B63" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="47"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1873,8 +1873,8 @@
       <c r="B70" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="58" t="s">
-        <v>129</v>
+      <c r="C70" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>55</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>56</v>
@@ -2338,17 +2338,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B59:C60"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B27:D27"/>
@@ -2356,6 +2345,17 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\proyecto\qualtcom\Organizacional\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\qtp\qualtcom\Organizacional\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <definedName name="Excel_BuiltIn_Print_Area_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Area_4">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>https://github.com/jovannyzepeda/qtp</t>
+  </si>
+  <si>
+    <t>Para la correcta identificacion de un archivo se toma la siguiente base , carpeta base/Carpeta/subcarpeta/ archivo. Ejemplo : Base/Organizacional/Configuracion/PlanConfiguracion</t>
+  </si>
+  <si>
+    <t>Cronograma-Auditorias</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -732,12 +738,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +851,42 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -845,47 +896,20 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1314,36 +1338,2081 @@
     <col min="1024" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="55" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:1025" s="59" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58"/>
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58"/>
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58"/>
+      <c r="CL2" s="58"/>
+      <c r="CM2" s="58"/>
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="58"/>
+      <c r="CP2" s="58"/>
+      <c r="CQ2" s="58"/>
+      <c r="CR2" s="58"/>
+      <c r="CS2" s="58"/>
+      <c r="CT2" s="58"/>
+      <c r="CU2" s="58"/>
+      <c r="CV2" s="58"/>
+      <c r="CW2" s="58"/>
+      <c r="CX2" s="58"/>
+      <c r="CY2" s="58"/>
+      <c r="CZ2" s="58"/>
+      <c r="DA2" s="58"/>
+      <c r="DB2" s="58"/>
+      <c r="DC2" s="58"/>
+      <c r="DD2" s="58"/>
+      <c r="DE2" s="58"/>
+      <c r="DF2" s="58"/>
+      <c r="DG2" s="58"/>
+      <c r="DH2" s="58"/>
+      <c r="DI2" s="58"/>
+      <c r="DJ2" s="58"/>
+      <c r="DK2" s="58"/>
+      <c r="DL2" s="58"/>
+      <c r="DM2" s="58"/>
+      <c r="DN2" s="58"/>
+      <c r="DO2" s="58"/>
+      <c r="DP2" s="58"/>
+      <c r="DQ2" s="58"/>
+      <c r="DR2" s="58"/>
+      <c r="DS2" s="58"/>
+      <c r="DT2" s="58"/>
+      <c r="DU2" s="58"/>
+      <c r="DV2" s="58"/>
+      <c r="DW2" s="58"/>
+      <c r="DX2" s="58"/>
+      <c r="DY2" s="58"/>
+      <c r="DZ2" s="58"/>
+      <c r="EA2" s="58"/>
+      <c r="EB2" s="58"/>
+      <c r="EC2" s="58"/>
+      <c r="ED2" s="58"/>
+      <c r="EE2" s="58"/>
+      <c r="EF2" s="58"/>
+      <c r="EG2" s="58"/>
+      <c r="EH2" s="58"/>
+      <c r="EI2" s="58"/>
+      <c r="EJ2" s="58"/>
+      <c r="EK2" s="58"/>
+      <c r="EL2" s="58"/>
+      <c r="EM2" s="58"/>
+      <c r="EN2" s="58"/>
+      <c r="EO2" s="58"/>
+      <c r="EP2" s="58"/>
+      <c r="EQ2" s="58"/>
+      <c r="ER2" s="58"/>
+      <c r="ES2" s="58"/>
+      <c r="ET2" s="58"/>
+      <c r="EU2" s="58"/>
+      <c r="EV2" s="58"/>
+      <c r="EW2" s="58"/>
+      <c r="EX2" s="58"/>
+      <c r="EY2" s="58"/>
+      <c r="EZ2" s="58"/>
+      <c r="FA2" s="58"/>
+      <c r="FB2" s="58"/>
+      <c r="FC2" s="58"/>
+      <c r="FD2" s="58"/>
+      <c r="FE2" s="58"/>
+      <c r="FF2" s="58"/>
+      <c r="FG2" s="58"/>
+      <c r="FH2" s="58"/>
+      <c r="FI2" s="58"/>
+      <c r="FJ2" s="58"/>
+      <c r="FK2" s="58"/>
+      <c r="FL2" s="58"/>
+      <c r="FM2" s="58"/>
+      <c r="FN2" s="58"/>
+      <c r="FO2" s="58"/>
+      <c r="FP2" s="58"/>
+      <c r="FQ2" s="58"/>
+      <c r="FR2" s="58"/>
+      <c r="FS2" s="58"/>
+      <c r="FT2" s="58"/>
+      <c r="FU2" s="58"/>
+      <c r="FV2" s="58"/>
+      <c r="FW2" s="58"/>
+      <c r="FX2" s="58"/>
+      <c r="FY2" s="58"/>
+      <c r="FZ2" s="58"/>
+      <c r="GA2" s="58"/>
+      <c r="GB2" s="58"/>
+      <c r="GC2" s="58"/>
+      <c r="GD2" s="58"/>
+      <c r="GE2" s="58"/>
+      <c r="GF2" s="58"/>
+      <c r="GG2" s="58"/>
+      <c r="GH2" s="58"/>
+      <c r="GI2" s="58"/>
+      <c r="GJ2" s="58"/>
+      <c r="GK2" s="58"/>
+      <c r="GL2" s="58"/>
+      <c r="GM2" s="58"/>
+      <c r="GN2" s="58"/>
+      <c r="GO2" s="58"/>
+      <c r="GP2" s="58"/>
+      <c r="GQ2" s="58"/>
+      <c r="GR2" s="58"/>
+      <c r="GS2" s="58"/>
+      <c r="GT2" s="58"/>
+      <c r="GU2" s="58"/>
+      <c r="GV2" s="58"/>
+      <c r="GW2" s="58"/>
+      <c r="GX2" s="58"/>
+      <c r="GY2" s="58"/>
+      <c r="GZ2" s="58"/>
+      <c r="HA2" s="58"/>
+      <c r="HB2" s="58"/>
+      <c r="HC2" s="58"/>
+      <c r="HD2" s="58"/>
+      <c r="HE2" s="58"/>
+      <c r="HF2" s="58"/>
+      <c r="HG2" s="58"/>
+      <c r="HH2" s="58"/>
+      <c r="HI2" s="58"/>
+      <c r="HJ2" s="58"/>
+      <c r="HK2" s="58"/>
+      <c r="HL2" s="58"/>
+      <c r="HM2" s="58"/>
+      <c r="HN2" s="58"/>
+      <c r="HO2" s="58"/>
+      <c r="HP2" s="58"/>
+      <c r="HQ2" s="58"/>
+      <c r="HR2" s="58"/>
+      <c r="HS2" s="58"/>
+      <c r="HT2" s="58"/>
+      <c r="HU2" s="58"/>
+      <c r="HV2" s="58"/>
+      <c r="HW2" s="58"/>
+      <c r="HX2" s="58"/>
+      <c r="HY2" s="58"/>
+      <c r="HZ2" s="58"/>
+      <c r="IA2" s="58"/>
+      <c r="IB2" s="58"/>
+      <c r="IC2" s="58"/>
+      <c r="ID2" s="58"/>
+      <c r="IE2" s="58"/>
+      <c r="IF2" s="58"/>
+      <c r="IG2" s="58"/>
+      <c r="IH2" s="58"/>
+      <c r="II2" s="58"/>
+      <c r="IJ2" s="58"/>
+      <c r="IK2" s="58"/>
+      <c r="IL2" s="58"/>
+      <c r="IM2" s="58"/>
+      <c r="IN2" s="58"/>
+      <c r="IO2" s="58"/>
+      <c r="IP2" s="58"/>
+      <c r="IQ2" s="58"/>
+      <c r="IR2" s="58"/>
+      <c r="IS2" s="58"/>
+      <c r="IT2" s="58"/>
+      <c r="IU2" s="58"/>
+      <c r="IV2" s="58"/>
+      <c r="IW2" s="58"/>
+      <c r="IX2" s="58"/>
+      <c r="IY2" s="58"/>
+      <c r="IZ2" s="58"/>
+      <c r="JA2" s="58"/>
+      <c r="JB2" s="58"/>
+      <c r="JC2" s="58"/>
+      <c r="JD2" s="58"/>
+      <c r="JE2" s="58"/>
+      <c r="JF2" s="58"/>
+      <c r="JG2" s="58"/>
+      <c r="JH2" s="58"/>
+      <c r="JI2" s="58"/>
+      <c r="JJ2" s="58"/>
+      <c r="JK2" s="58"/>
+      <c r="JL2" s="58"/>
+      <c r="JM2" s="58"/>
+      <c r="JN2" s="58"/>
+      <c r="JO2" s="58"/>
+      <c r="JP2" s="58"/>
+      <c r="JQ2" s="58"/>
+      <c r="JR2" s="58"/>
+      <c r="JS2" s="58"/>
+      <c r="JT2" s="58"/>
+      <c r="JU2" s="58"/>
+      <c r="JV2" s="58"/>
+      <c r="JW2" s="58"/>
+      <c r="JX2" s="58"/>
+      <c r="JY2" s="58"/>
+      <c r="JZ2" s="58"/>
+      <c r="KA2" s="58"/>
+      <c r="KB2" s="58"/>
+      <c r="KC2" s="58"/>
+      <c r="KD2" s="58"/>
+      <c r="KE2" s="58"/>
+      <c r="KF2" s="58"/>
+      <c r="KG2" s="58"/>
+      <c r="KH2" s="58"/>
+      <c r="KI2" s="58"/>
+      <c r="KJ2" s="58"/>
+      <c r="KK2" s="58"/>
+      <c r="KL2" s="58"/>
+      <c r="KM2" s="58"/>
+      <c r="KN2" s="58"/>
+      <c r="KO2" s="58"/>
+      <c r="KP2" s="58"/>
+      <c r="KQ2" s="58"/>
+      <c r="KR2" s="58"/>
+      <c r="KS2" s="58"/>
+      <c r="KT2" s="58"/>
+      <c r="KU2" s="58"/>
+      <c r="KV2" s="58"/>
+      <c r="KW2" s="58"/>
+      <c r="KX2" s="58"/>
+      <c r="KY2" s="58"/>
+      <c r="KZ2" s="58"/>
+      <c r="LA2" s="58"/>
+      <c r="LB2" s="58"/>
+      <c r="LC2" s="58"/>
+      <c r="LD2" s="58"/>
+      <c r="LE2" s="58"/>
+      <c r="LF2" s="58"/>
+      <c r="LG2" s="58"/>
+      <c r="LH2" s="58"/>
+      <c r="LI2" s="58"/>
+      <c r="LJ2" s="58"/>
+      <c r="LK2" s="58"/>
+      <c r="LL2" s="58"/>
+      <c r="LM2" s="58"/>
+      <c r="LN2" s="58"/>
+      <c r="LO2" s="58"/>
+      <c r="LP2" s="58"/>
+      <c r="LQ2" s="58"/>
+      <c r="LR2" s="58"/>
+      <c r="LS2" s="58"/>
+      <c r="LT2" s="58"/>
+      <c r="LU2" s="58"/>
+      <c r="LV2" s="58"/>
+      <c r="LW2" s="58"/>
+      <c r="LX2" s="58"/>
+      <c r="LY2" s="58"/>
+      <c r="LZ2" s="58"/>
+      <c r="MA2" s="58"/>
+      <c r="MB2" s="58"/>
+      <c r="MC2" s="58"/>
+      <c r="MD2" s="58"/>
+      <c r="ME2" s="58"/>
+      <c r="MF2" s="58"/>
+      <c r="MG2" s="58"/>
+      <c r="MH2" s="58"/>
+      <c r="MI2" s="58"/>
+      <c r="MJ2" s="58"/>
+      <c r="MK2" s="58"/>
+      <c r="ML2" s="58"/>
+      <c r="MM2" s="58"/>
+      <c r="MN2" s="58"/>
+      <c r="MO2" s="58"/>
+      <c r="MP2" s="58"/>
+      <c r="MQ2" s="58"/>
+      <c r="MR2" s="58"/>
+      <c r="MS2" s="58"/>
+      <c r="MT2" s="58"/>
+      <c r="MU2" s="58"/>
+      <c r="MV2" s="58"/>
+      <c r="MW2" s="58"/>
+      <c r="MX2" s="58"/>
+      <c r="MY2" s="58"/>
+      <c r="MZ2" s="58"/>
+      <c r="NA2" s="58"/>
+      <c r="NB2" s="58"/>
+      <c r="NC2" s="58"/>
+      <c r="ND2" s="58"/>
+      <c r="NE2" s="58"/>
+      <c r="NF2" s="58"/>
+      <c r="NG2" s="58"/>
+      <c r="NH2" s="58"/>
+      <c r="NI2" s="58"/>
+      <c r="NJ2" s="58"/>
+      <c r="NK2" s="58"/>
+      <c r="NL2" s="58"/>
+      <c r="NM2" s="58"/>
+      <c r="NN2" s="58"/>
+      <c r="NO2" s="58"/>
+      <c r="NP2" s="58"/>
+      <c r="NQ2" s="58"/>
+      <c r="NR2" s="58"/>
+      <c r="NS2" s="58"/>
+      <c r="NT2" s="58"/>
+      <c r="NU2" s="58"/>
+      <c r="NV2" s="58"/>
+      <c r="NW2" s="58"/>
+      <c r="NX2" s="58"/>
+      <c r="NY2" s="58"/>
+      <c r="NZ2" s="58"/>
+      <c r="OA2" s="58"/>
+      <c r="OB2" s="58"/>
+      <c r="OC2" s="58"/>
+      <c r="OD2" s="58"/>
+      <c r="OE2" s="58"/>
+      <c r="OF2" s="58"/>
+      <c r="OG2" s="58"/>
+      <c r="OH2" s="58"/>
+      <c r="OI2" s="58"/>
+      <c r="OJ2" s="58"/>
+      <c r="OK2" s="58"/>
+      <c r="OL2" s="58"/>
+      <c r="OM2" s="58"/>
+      <c r="ON2" s="58"/>
+      <c r="OO2" s="58"/>
+      <c r="OP2" s="58"/>
+      <c r="OQ2" s="58"/>
+      <c r="OR2" s="58"/>
+      <c r="OS2" s="58"/>
+      <c r="OT2" s="58"/>
+      <c r="OU2" s="58"/>
+      <c r="OV2" s="58"/>
+      <c r="OW2" s="58"/>
+      <c r="OX2" s="58"/>
+      <c r="OY2" s="58"/>
+      <c r="OZ2" s="58"/>
+      <c r="PA2" s="58"/>
+      <c r="PB2" s="58"/>
+      <c r="PC2" s="58"/>
+      <c r="PD2" s="58"/>
+      <c r="PE2" s="58"/>
+      <c r="PF2" s="58"/>
+      <c r="PG2" s="58"/>
+      <c r="PH2" s="58"/>
+      <c r="PI2" s="58"/>
+      <c r="PJ2" s="58"/>
+      <c r="PK2" s="58"/>
+      <c r="PL2" s="58"/>
+      <c r="PM2" s="58"/>
+      <c r="PN2" s="58"/>
+      <c r="PO2" s="58"/>
+      <c r="PP2" s="58"/>
+      <c r="PQ2" s="58"/>
+      <c r="PR2" s="58"/>
+      <c r="PS2" s="58"/>
+      <c r="PT2" s="58"/>
+      <c r="PU2" s="58"/>
+      <c r="PV2" s="58"/>
+      <c r="PW2" s="58"/>
+      <c r="PX2" s="58"/>
+      <c r="PY2" s="58"/>
+      <c r="PZ2" s="58"/>
+      <c r="QA2" s="58"/>
+      <c r="QB2" s="58"/>
+      <c r="QC2" s="58"/>
+      <c r="QD2" s="58"/>
+      <c r="QE2" s="58"/>
+      <c r="QF2" s="58"/>
+      <c r="QG2" s="58"/>
+      <c r="QH2" s="58"/>
+      <c r="QI2" s="58"/>
+      <c r="QJ2" s="58"/>
+      <c r="QK2" s="58"/>
+      <c r="QL2" s="58"/>
+      <c r="QM2" s="58"/>
+      <c r="QN2" s="58"/>
+      <c r="QO2" s="58"/>
+      <c r="QP2" s="58"/>
+      <c r="QQ2" s="58"/>
+      <c r="QR2" s="58"/>
+      <c r="QS2" s="58"/>
+      <c r="QT2" s="58"/>
+      <c r="QU2" s="58"/>
+      <c r="QV2" s="58"/>
+      <c r="QW2" s="58"/>
+      <c r="QX2" s="58"/>
+      <c r="QY2" s="58"/>
+      <c r="QZ2" s="58"/>
+      <c r="RA2" s="58"/>
+      <c r="RB2" s="58"/>
+      <c r="RC2" s="58"/>
+      <c r="RD2" s="58"/>
+      <c r="RE2" s="58"/>
+      <c r="RF2" s="58"/>
+      <c r="RG2" s="58"/>
+      <c r="RH2" s="58"/>
+      <c r="RI2" s="58"/>
+      <c r="RJ2" s="58"/>
+      <c r="RK2" s="58"/>
+      <c r="RL2" s="58"/>
+      <c r="RM2" s="58"/>
+      <c r="RN2" s="58"/>
+      <c r="RO2" s="58"/>
+      <c r="RP2" s="58"/>
+      <c r="RQ2" s="58"/>
+      <c r="RR2" s="58"/>
+      <c r="RS2" s="58"/>
+      <c r="RT2" s="58"/>
+      <c r="RU2" s="58"/>
+      <c r="RV2" s="58"/>
+      <c r="RW2" s="58"/>
+      <c r="RX2" s="58"/>
+      <c r="RY2" s="58"/>
+      <c r="RZ2" s="58"/>
+      <c r="SA2" s="58"/>
+      <c r="SB2" s="58"/>
+      <c r="SC2" s="58"/>
+      <c r="SD2" s="58"/>
+      <c r="SE2" s="58"/>
+      <c r="SF2" s="58"/>
+      <c r="SG2" s="58"/>
+      <c r="SH2" s="58"/>
+      <c r="SI2" s="58"/>
+      <c r="SJ2" s="58"/>
+      <c r="SK2" s="58"/>
+      <c r="SL2" s="58"/>
+      <c r="SM2" s="58"/>
+      <c r="SN2" s="58"/>
+      <c r="SO2" s="58"/>
+      <c r="SP2" s="58"/>
+      <c r="SQ2" s="58"/>
+      <c r="SR2" s="58"/>
+      <c r="SS2" s="58"/>
+      <c r="ST2" s="58"/>
+      <c r="SU2" s="58"/>
+      <c r="SV2" s="58"/>
+      <c r="SW2" s="58"/>
+      <c r="SX2" s="58"/>
+      <c r="SY2" s="58"/>
+      <c r="SZ2" s="58"/>
+      <c r="TA2" s="58"/>
+      <c r="TB2" s="58"/>
+      <c r="TC2" s="58"/>
+      <c r="TD2" s="58"/>
+      <c r="TE2" s="58"/>
+      <c r="TF2" s="58"/>
+      <c r="TG2" s="58"/>
+      <c r="TH2" s="58"/>
+      <c r="TI2" s="58"/>
+      <c r="TJ2" s="58"/>
+      <c r="TK2" s="58"/>
+      <c r="TL2" s="58"/>
+      <c r="TM2" s="58"/>
+      <c r="TN2" s="58"/>
+      <c r="TO2" s="58"/>
+      <c r="TP2" s="58"/>
+      <c r="TQ2" s="58"/>
+      <c r="TR2" s="58"/>
+      <c r="TS2" s="58"/>
+      <c r="TT2" s="58"/>
+      <c r="TU2" s="58"/>
+      <c r="TV2" s="58"/>
+      <c r="TW2" s="58"/>
+      <c r="TX2" s="58"/>
+      <c r="TY2" s="58"/>
+      <c r="TZ2" s="58"/>
+      <c r="UA2" s="58"/>
+      <c r="UB2" s="58"/>
+      <c r="UC2" s="58"/>
+      <c r="UD2" s="58"/>
+      <c r="UE2" s="58"/>
+      <c r="UF2" s="58"/>
+      <c r="UG2" s="58"/>
+      <c r="UH2" s="58"/>
+      <c r="UI2" s="58"/>
+      <c r="UJ2" s="58"/>
+      <c r="UK2" s="58"/>
+      <c r="UL2" s="58"/>
+      <c r="UM2" s="58"/>
+      <c r="UN2" s="58"/>
+      <c r="UO2" s="58"/>
+      <c r="UP2" s="58"/>
+      <c r="UQ2" s="58"/>
+      <c r="UR2" s="58"/>
+      <c r="US2" s="58"/>
+      <c r="UT2" s="58"/>
+      <c r="UU2" s="58"/>
+      <c r="UV2" s="58"/>
+      <c r="UW2" s="58"/>
+      <c r="UX2" s="58"/>
+      <c r="UY2" s="58"/>
+      <c r="UZ2" s="58"/>
+      <c r="VA2" s="58"/>
+      <c r="VB2" s="58"/>
+      <c r="VC2" s="58"/>
+      <c r="VD2" s="58"/>
+      <c r="VE2" s="58"/>
+      <c r="VF2" s="58"/>
+      <c r="VG2" s="58"/>
+      <c r="VH2" s="58"/>
+      <c r="VI2" s="58"/>
+      <c r="VJ2" s="58"/>
+      <c r="VK2" s="58"/>
+      <c r="VL2" s="58"/>
+      <c r="VM2" s="58"/>
+      <c r="VN2" s="58"/>
+      <c r="VO2" s="58"/>
+      <c r="VP2" s="58"/>
+      <c r="VQ2" s="58"/>
+      <c r="VR2" s="58"/>
+      <c r="VS2" s="58"/>
+      <c r="VT2" s="58"/>
+      <c r="VU2" s="58"/>
+      <c r="VV2" s="58"/>
+      <c r="VW2" s="58"/>
+      <c r="VX2" s="58"/>
+      <c r="VY2" s="58"/>
+      <c r="VZ2" s="58"/>
+      <c r="WA2" s="58"/>
+      <c r="WB2" s="58"/>
+      <c r="WC2" s="58"/>
+      <c r="WD2" s="58"/>
+      <c r="WE2" s="58"/>
+      <c r="WF2" s="58"/>
+      <c r="WG2" s="58"/>
+      <c r="WH2" s="58"/>
+      <c r="WI2" s="58"/>
+      <c r="WJ2" s="58"/>
+      <c r="WK2" s="58"/>
+      <c r="WL2" s="58"/>
+      <c r="WM2" s="58"/>
+      <c r="WN2" s="58"/>
+      <c r="WO2" s="58"/>
+      <c r="WP2" s="58"/>
+      <c r="WQ2" s="58"/>
+      <c r="WR2" s="58"/>
+      <c r="WS2" s="58"/>
+      <c r="WT2" s="58"/>
+      <c r="WU2" s="58"/>
+      <c r="WV2" s="58"/>
+      <c r="WW2" s="58"/>
+      <c r="WX2" s="58"/>
+      <c r="WY2" s="58"/>
+      <c r="WZ2" s="58"/>
+      <c r="XA2" s="58"/>
+      <c r="XB2" s="58"/>
+      <c r="XC2" s="58"/>
+      <c r="XD2" s="58"/>
+      <c r="XE2" s="58"/>
+      <c r="XF2" s="58"/>
+      <c r="XG2" s="58"/>
+      <c r="XH2" s="58"/>
+      <c r="XI2" s="58"/>
+      <c r="XJ2" s="58"/>
+      <c r="XK2" s="58"/>
+      <c r="XL2" s="58"/>
+      <c r="XM2" s="58"/>
+      <c r="XN2" s="58"/>
+      <c r="XO2" s="58"/>
+      <c r="XP2" s="58"/>
+      <c r="XQ2" s="58"/>
+      <c r="XR2" s="58"/>
+      <c r="XS2" s="58"/>
+      <c r="XT2" s="58"/>
+      <c r="XU2" s="58"/>
+      <c r="XV2" s="58"/>
+      <c r="XW2" s="58"/>
+      <c r="XX2" s="58"/>
+      <c r="XY2" s="58"/>
+      <c r="XZ2" s="58"/>
+      <c r="YA2" s="58"/>
+      <c r="YB2" s="58"/>
+      <c r="YC2" s="58"/>
+      <c r="YD2" s="58"/>
+      <c r="YE2" s="58"/>
+      <c r="YF2" s="58"/>
+      <c r="YG2" s="58"/>
+      <c r="YH2" s="58"/>
+      <c r="YI2" s="58"/>
+      <c r="YJ2" s="58"/>
+      <c r="YK2" s="58"/>
+      <c r="YL2" s="58"/>
+      <c r="YM2" s="58"/>
+      <c r="YN2" s="58"/>
+      <c r="YO2" s="58"/>
+      <c r="YP2" s="58"/>
+      <c r="YQ2" s="58"/>
+      <c r="YR2" s="58"/>
+      <c r="YS2" s="58"/>
+      <c r="YT2" s="58"/>
+      <c r="YU2" s="58"/>
+      <c r="YV2" s="58"/>
+      <c r="YW2" s="58"/>
+      <c r="YX2" s="58"/>
+      <c r="YY2" s="58"/>
+      <c r="YZ2" s="58"/>
+      <c r="ZA2" s="58"/>
+      <c r="ZB2" s="58"/>
+      <c r="ZC2" s="58"/>
+      <c r="ZD2" s="58"/>
+      <c r="ZE2" s="58"/>
+      <c r="ZF2" s="58"/>
+      <c r="ZG2" s="58"/>
+      <c r="ZH2" s="58"/>
+      <c r="ZI2" s="58"/>
+      <c r="ZJ2" s="58"/>
+      <c r="ZK2" s="58"/>
+      <c r="ZL2" s="58"/>
+      <c r="ZM2" s="58"/>
+      <c r="ZN2" s="58"/>
+      <c r="ZO2" s="58"/>
+      <c r="ZP2" s="58"/>
+      <c r="ZQ2" s="58"/>
+      <c r="ZR2" s="58"/>
+      <c r="ZS2" s="58"/>
+      <c r="ZT2" s="58"/>
+      <c r="ZU2" s="58"/>
+      <c r="ZV2" s="58"/>
+      <c r="ZW2" s="58"/>
+      <c r="ZX2" s="58"/>
+      <c r="ZY2" s="58"/>
+      <c r="ZZ2" s="58"/>
+      <c r="AAA2" s="58"/>
+      <c r="AAB2" s="58"/>
+      <c r="AAC2" s="58"/>
+      <c r="AAD2" s="58"/>
+      <c r="AAE2" s="58"/>
+      <c r="AAF2" s="58"/>
+      <c r="AAG2" s="58"/>
+      <c r="AAH2" s="58"/>
+      <c r="AAI2" s="58"/>
+      <c r="AAJ2" s="58"/>
+      <c r="AAK2" s="58"/>
+      <c r="AAL2" s="58"/>
+      <c r="AAM2" s="58"/>
+      <c r="AAN2" s="58"/>
+      <c r="AAO2" s="58"/>
+      <c r="AAP2" s="58"/>
+      <c r="AAQ2" s="58"/>
+      <c r="AAR2" s="58"/>
+      <c r="AAS2" s="58"/>
+      <c r="AAT2" s="58"/>
+      <c r="AAU2" s="58"/>
+      <c r="AAV2" s="58"/>
+      <c r="AAW2" s="58"/>
+      <c r="AAX2" s="58"/>
+      <c r="AAY2" s="58"/>
+      <c r="AAZ2" s="58"/>
+      <c r="ABA2" s="58"/>
+      <c r="ABB2" s="58"/>
+      <c r="ABC2" s="58"/>
+      <c r="ABD2" s="58"/>
+      <c r="ABE2" s="58"/>
+      <c r="ABF2" s="58"/>
+      <c r="ABG2" s="58"/>
+      <c r="ABH2" s="58"/>
+      <c r="ABI2" s="58"/>
+      <c r="ABJ2" s="58"/>
+      <c r="ABK2" s="58"/>
+      <c r="ABL2" s="58"/>
+      <c r="ABM2" s="58"/>
+      <c r="ABN2" s="58"/>
+      <c r="ABO2" s="58"/>
+      <c r="ABP2" s="58"/>
+      <c r="ABQ2" s="58"/>
+      <c r="ABR2" s="58"/>
+      <c r="ABS2" s="58"/>
+      <c r="ABT2" s="58"/>
+      <c r="ABU2" s="58"/>
+      <c r="ABV2" s="58"/>
+      <c r="ABW2" s="58"/>
+      <c r="ABX2" s="58"/>
+      <c r="ABY2" s="58"/>
+      <c r="ABZ2" s="58"/>
+      <c r="ACA2" s="58"/>
+      <c r="ACB2" s="58"/>
+      <c r="ACC2" s="58"/>
+      <c r="ACD2" s="58"/>
+      <c r="ACE2" s="58"/>
+      <c r="ACF2" s="58"/>
+      <c r="ACG2" s="58"/>
+      <c r="ACH2" s="58"/>
+      <c r="ACI2" s="58"/>
+      <c r="ACJ2" s="58"/>
+      <c r="ACK2" s="58"/>
+      <c r="ACL2" s="58"/>
+      <c r="ACM2" s="58"/>
+      <c r="ACN2" s="58"/>
+      <c r="ACO2" s="58"/>
+      <c r="ACP2" s="58"/>
+      <c r="ACQ2" s="58"/>
+      <c r="ACR2" s="58"/>
+      <c r="ACS2" s="58"/>
+      <c r="ACT2" s="58"/>
+      <c r="ACU2" s="58"/>
+      <c r="ACV2" s="58"/>
+      <c r="ACW2" s="58"/>
+      <c r="ACX2" s="58"/>
+      <c r="ACY2" s="58"/>
+      <c r="ACZ2" s="58"/>
+      <c r="ADA2" s="58"/>
+      <c r="ADB2" s="58"/>
+      <c r="ADC2" s="58"/>
+      <c r="ADD2" s="58"/>
+      <c r="ADE2" s="58"/>
+      <c r="ADF2" s="58"/>
+      <c r="ADG2" s="58"/>
+      <c r="ADH2" s="58"/>
+      <c r="ADI2" s="58"/>
+      <c r="ADJ2" s="58"/>
+      <c r="ADK2" s="58"/>
+      <c r="ADL2" s="58"/>
+      <c r="ADM2" s="58"/>
+      <c r="ADN2" s="58"/>
+      <c r="ADO2" s="58"/>
+      <c r="ADP2" s="58"/>
+      <c r="ADQ2" s="58"/>
+      <c r="ADR2" s="58"/>
+      <c r="ADS2" s="58"/>
+      <c r="ADT2" s="58"/>
+      <c r="ADU2" s="58"/>
+      <c r="ADV2" s="58"/>
+      <c r="ADW2" s="58"/>
+      <c r="ADX2" s="58"/>
+      <c r="ADY2" s="58"/>
+      <c r="ADZ2" s="58"/>
+      <c r="AEA2" s="58"/>
+      <c r="AEB2" s="58"/>
+      <c r="AEC2" s="58"/>
+      <c r="AED2" s="58"/>
+      <c r="AEE2" s="58"/>
+      <c r="AEF2" s="58"/>
+      <c r="AEG2" s="58"/>
+      <c r="AEH2" s="58"/>
+      <c r="AEI2" s="58"/>
+      <c r="AEJ2" s="58"/>
+      <c r="AEK2" s="58"/>
+      <c r="AEL2" s="58"/>
+      <c r="AEM2" s="58"/>
+      <c r="AEN2" s="58"/>
+      <c r="AEO2" s="58"/>
+      <c r="AEP2" s="58"/>
+      <c r="AEQ2" s="58"/>
+      <c r="AER2" s="58"/>
+      <c r="AES2" s="58"/>
+      <c r="AET2" s="58"/>
+      <c r="AEU2" s="58"/>
+      <c r="AEV2" s="58"/>
+      <c r="AEW2" s="58"/>
+      <c r="AEX2" s="58"/>
+      <c r="AEY2" s="58"/>
+      <c r="AEZ2" s="58"/>
+      <c r="AFA2" s="58"/>
+      <c r="AFB2" s="58"/>
+      <c r="AFC2" s="58"/>
+      <c r="AFD2" s="58"/>
+      <c r="AFE2" s="58"/>
+      <c r="AFF2" s="58"/>
+      <c r="AFG2" s="58"/>
+      <c r="AFH2" s="58"/>
+      <c r="AFI2" s="58"/>
+      <c r="AFJ2" s="58"/>
+      <c r="AFK2" s="58"/>
+      <c r="AFL2" s="58"/>
+      <c r="AFM2" s="58"/>
+      <c r="AFN2" s="58"/>
+      <c r="AFO2" s="58"/>
+      <c r="AFP2" s="58"/>
+      <c r="AFQ2" s="58"/>
+      <c r="AFR2" s="58"/>
+      <c r="AFS2" s="58"/>
+      <c r="AFT2" s="58"/>
+      <c r="AFU2" s="58"/>
+      <c r="AFV2" s="58"/>
+      <c r="AFW2" s="58"/>
+      <c r="AFX2" s="58"/>
+      <c r="AFY2" s="58"/>
+      <c r="AFZ2" s="58"/>
+      <c r="AGA2" s="58"/>
+      <c r="AGB2" s="58"/>
+      <c r="AGC2" s="58"/>
+      <c r="AGD2" s="58"/>
+      <c r="AGE2" s="58"/>
+      <c r="AGF2" s="58"/>
+      <c r="AGG2" s="58"/>
+      <c r="AGH2" s="58"/>
+      <c r="AGI2" s="58"/>
+      <c r="AGJ2" s="58"/>
+      <c r="AGK2" s="58"/>
+      <c r="AGL2" s="58"/>
+      <c r="AGM2" s="58"/>
+      <c r="AGN2" s="58"/>
+      <c r="AGO2" s="58"/>
+      <c r="AGP2" s="58"/>
+      <c r="AGQ2" s="58"/>
+      <c r="AGR2" s="58"/>
+      <c r="AGS2" s="58"/>
+      <c r="AGT2" s="58"/>
+      <c r="AGU2" s="58"/>
+      <c r="AGV2" s="58"/>
+      <c r="AGW2" s="58"/>
+      <c r="AGX2" s="58"/>
+      <c r="AGY2" s="58"/>
+      <c r="AGZ2" s="58"/>
+      <c r="AHA2" s="58"/>
+      <c r="AHB2" s="58"/>
+      <c r="AHC2" s="58"/>
+      <c r="AHD2" s="58"/>
+      <c r="AHE2" s="58"/>
+      <c r="AHF2" s="58"/>
+      <c r="AHG2" s="58"/>
+      <c r="AHH2" s="58"/>
+      <c r="AHI2" s="58"/>
+      <c r="AHJ2" s="58"/>
+      <c r="AHK2" s="58"/>
+      <c r="AHL2" s="58"/>
+      <c r="AHM2" s="58"/>
+      <c r="AHN2" s="58"/>
+      <c r="AHO2" s="58"/>
+      <c r="AHP2" s="58"/>
+      <c r="AHQ2" s="58"/>
+      <c r="AHR2" s="58"/>
+      <c r="AHS2" s="58"/>
+      <c r="AHT2" s="58"/>
+      <c r="AHU2" s="58"/>
+      <c r="AHV2" s="58"/>
+      <c r="AHW2" s="58"/>
+      <c r="AHX2" s="58"/>
+      <c r="AHY2" s="58"/>
+      <c r="AHZ2" s="58"/>
+      <c r="AIA2" s="58"/>
+      <c r="AIB2" s="58"/>
+      <c r="AIC2" s="58"/>
+      <c r="AID2" s="58"/>
+      <c r="AIE2" s="58"/>
+      <c r="AIF2" s="58"/>
+      <c r="AIG2" s="58"/>
+      <c r="AIH2" s="58"/>
+      <c r="AII2" s="58"/>
+      <c r="AIJ2" s="58"/>
+      <c r="AIK2" s="58"/>
+      <c r="AIL2" s="58"/>
+      <c r="AIM2" s="58"/>
+      <c r="AIN2" s="58"/>
+      <c r="AIO2" s="58"/>
+      <c r="AIP2" s="58"/>
+      <c r="AIQ2" s="58"/>
+      <c r="AIR2" s="58"/>
+      <c r="AIS2" s="58"/>
+      <c r="AIT2" s="58"/>
+      <c r="AIU2" s="58"/>
+      <c r="AIV2" s="58"/>
+      <c r="AIW2" s="58"/>
+      <c r="AIX2" s="58"/>
+      <c r="AIY2" s="58"/>
+      <c r="AIZ2" s="58"/>
+      <c r="AJA2" s="58"/>
+      <c r="AJB2" s="58"/>
+      <c r="AJC2" s="58"/>
+      <c r="AJD2" s="58"/>
+      <c r="AJE2" s="58"/>
+      <c r="AJF2" s="58"/>
+      <c r="AJG2" s="58"/>
+      <c r="AJH2" s="58"/>
+      <c r="AJI2" s="58"/>
+      <c r="AJJ2" s="58"/>
+      <c r="AJK2" s="58"/>
+      <c r="AJL2" s="58"/>
+      <c r="AJM2" s="58"/>
+      <c r="AJN2" s="58"/>
+      <c r="AJO2" s="58"/>
+      <c r="AJP2" s="58"/>
+      <c r="AJQ2" s="58"/>
+      <c r="AJR2" s="58"/>
+      <c r="AJS2" s="58"/>
+      <c r="AJT2" s="58"/>
+      <c r="AJU2" s="58"/>
+      <c r="AJV2" s="58"/>
+      <c r="AJW2" s="58"/>
+      <c r="AJX2" s="58"/>
+      <c r="AJY2" s="58"/>
+      <c r="AJZ2" s="58"/>
+      <c r="AKA2" s="58"/>
+      <c r="AKB2" s="58"/>
+      <c r="AKC2" s="58"/>
+      <c r="AKD2" s="58"/>
+      <c r="AKE2" s="58"/>
+      <c r="AKF2" s="58"/>
+      <c r="AKG2" s="58"/>
+      <c r="AKH2" s="58"/>
+      <c r="AKI2" s="58"/>
+      <c r="AKJ2" s="58"/>
+      <c r="AKK2" s="58"/>
+      <c r="AKL2" s="58"/>
+      <c r="AKM2" s="58"/>
+      <c r="AKN2" s="58"/>
+      <c r="AKO2" s="58"/>
+      <c r="AKP2" s="58"/>
+      <c r="AKQ2" s="58"/>
+      <c r="AKR2" s="58"/>
+      <c r="AKS2" s="58"/>
+      <c r="AKT2" s="58"/>
+      <c r="AKU2" s="58"/>
+      <c r="AKV2" s="58"/>
+      <c r="AKW2" s="58"/>
+      <c r="AKX2" s="58"/>
+      <c r="AKY2" s="58"/>
+      <c r="AKZ2" s="58"/>
+      <c r="ALA2" s="58"/>
+      <c r="ALB2" s="58"/>
+      <c r="ALC2" s="58"/>
+      <c r="ALD2" s="58"/>
+      <c r="ALE2" s="58"/>
+      <c r="ALF2" s="58"/>
+      <c r="ALG2" s="58"/>
+      <c r="ALH2" s="58"/>
+      <c r="ALI2" s="58"/>
+      <c r="ALJ2" s="58"/>
+      <c r="ALK2" s="58"/>
+      <c r="ALL2" s="58"/>
+      <c r="ALM2" s="58"/>
+      <c r="ALN2" s="58"/>
+      <c r="ALO2" s="58"/>
+      <c r="ALP2" s="58"/>
+      <c r="ALQ2" s="58"/>
+      <c r="ALR2" s="58"/>
+      <c r="ALS2" s="58"/>
+      <c r="ALT2" s="58"/>
+      <c r="ALU2" s="58"/>
+      <c r="ALV2" s="58"/>
+      <c r="ALW2" s="58"/>
+      <c r="ALX2" s="58"/>
+      <c r="ALY2" s="58"/>
+      <c r="ALZ2" s="58"/>
+      <c r="AMA2" s="58"/>
+      <c r="AMB2" s="58"/>
+      <c r="AMC2" s="58"/>
+      <c r="AMD2" s="58"/>
+      <c r="AME2" s="58"/>
+      <c r="AMF2" s="58"/>
+      <c r="AMG2" s="58"/>
+      <c r="AMH2" s="58"/>
+      <c r="AMI2" s="58"/>
+      <c r="AMJ2" s="58"/>
+      <c r="AMK2" s="58"/>
+    </row>
+    <row r="3" spans="1:1025" s="59" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="58"/>
+      <c r="BK3" s="58"/>
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="58"/>
+      <c r="BR3" s="58"/>
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="58"/>
+      <c r="BY3" s="58"/>
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="58"/>
+      <c r="CF3" s="58"/>
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="58"/>
+      <c r="CM3" s="58"/>
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="58"/>
+      <c r="CT3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="58"/>
+      <c r="DA3" s="58"/>
+      <c r="DB3" s="58"/>
+      <c r="DC3" s="58"/>
+      <c r="DD3" s="58"/>
+      <c r="DE3" s="58"/>
+      <c r="DF3" s="58"/>
+      <c r="DG3" s="58"/>
+      <c r="DH3" s="58"/>
+      <c r="DI3" s="58"/>
+      <c r="DJ3" s="58"/>
+      <c r="DK3" s="58"/>
+      <c r="DL3" s="58"/>
+      <c r="DM3" s="58"/>
+      <c r="DN3" s="58"/>
+      <c r="DO3" s="58"/>
+      <c r="DP3" s="58"/>
+      <c r="DQ3" s="58"/>
+      <c r="DR3" s="58"/>
+      <c r="DS3" s="58"/>
+      <c r="DT3" s="58"/>
+      <c r="DU3" s="58"/>
+      <c r="DV3" s="58"/>
+      <c r="DW3" s="58"/>
+      <c r="DX3" s="58"/>
+      <c r="DY3" s="58"/>
+      <c r="DZ3" s="58"/>
+      <c r="EA3" s="58"/>
+      <c r="EB3" s="58"/>
+      <c r="EC3" s="58"/>
+      <c r="ED3" s="58"/>
+      <c r="EE3" s="58"/>
+      <c r="EF3" s="58"/>
+      <c r="EG3" s="58"/>
+      <c r="EH3" s="58"/>
+      <c r="EI3" s="58"/>
+      <c r="EJ3" s="58"/>
+      <c r="EK3" s="58"/>
+      <c r="EL3" s="58"/>
+      <c r="EM3" s="58"/>
+      <c r="EN3" s="58"/>
+      <c r="EO3" s="58"/>
+      <c r="EP3" s="58"/>
+      <c r="EQ3" s="58"/>
+      <c r="ER3" s="58"/>
+      <c r="ES3" s="58"/>
+      <c r="ET3" s="58"/>
+      <c r="EU3" s="58"/>
+      <c r="EV3" s="58"/>
+      <c r="EW3" s="58"/>
+      <c r="EX3" s="58"/>
+      <c r="EY3" s="58"/>
+      <c r="EZ3" s="58"/>
+      <c r="FA3" s="58"/>
+      <c r="FB3" s="58"/>
+      <c r="FC3" s="58"/>
+      <c r="FD3" s="58"/>
+      <c r="FE3" s="58"/>
+      <c r="FF3" s="58"/>
+      <c r="FG3" s="58"/>
+      <c r="FH3" s="58"/>
+      <c r="FI3" s="58"/>
+      <c r="FJ3" s="58"/>
+      <c r="FK3" s="58"/>
+      <c r="FL3" s="58"/>
+      <c r="FM3" s="58"/>
+      <c r="FN3" s="58"/>
+      <c r="FO3" s="58"/>
+      <c r="FP3" s="58"/>
+      <c r="FQ3" s="58"/>
+      <c r="FR3" s="58"/>
+      <c r="FS3" s="58"/>
+      <c r="FT3" s="58"/>
+      <c r="FU3" s="58"/>
+      <c r="FV3" s="58"/>
+      <c r="FW3" s="58"/>
+      <c r="FX3" s="58"/>
+      <c r="FY3" s="58"/>
+      <c r="FZ3" s="58"/>
+      <c r="GA3" s="58"/>
+      <c r="GB3" s="58"/>
+      <c r="GC3" s="58"/>
+      <c r="GD3" s="58"/>
+      <c r="GE3" s="58"/>
+      <c r="GF3" s="58"/>
+      <c r="GG3" s="58"/>
+      <c r="GH3" s="58"/>
+      <c r="GI3" s="58"/>
+      <c r="GJ3" s="58"/>
+      <c r="GK3" s="58"/>
+      <c r="GL3" s="58"/>
+      <c r="GM3" s="58"/>
+      <c r="GN3" s="58"/>
+      <c r="GO3" s="58"/>
+      <c r="GP3" s="58"/>
+      <c r="GQ3" s="58"/>
+      <c r="GR3" s="58"/>
+      <c r="GS3" s="58"/>
+      <c r="GT3" s="58"/>
+      <c r="GU3" s="58"/>
+      <c r="GV3" s="58"/>
+      <c r="GW3" s="58"/>
+      <c r="GX3" s="58"/>
+      <c r="GY3" s="58"/>
+      <c r="GZ3" s="58"/>
+      <c r="HA3" s="58"/>
+      <c r="HB3" s="58"/>
+      <c r="HC3" s="58"/>
+      <c r="HD3" s="58"/>
+      <c r="HE3" s="58"/>
+      <c r="HF3" s="58"/>
+      <c r="HG3" s="58"/>
+      <c r="HH3" s="58"/>
+      <c r="HI3" s="58"/>
+      <c r="HJ3" s="58"/>
+      <c r="HK3" s="58"/>
+      <c r="HL3" s="58"/>
+      <c r="HM3" s="58"/>
+      <c r="HN3" s="58"/>
+      <c r="HO3" s="58"/>
+      <c r="HP3" s="58"/>
+      <c r="HQ3" s="58"/>
+      <c r="HR3" s="58"/>
+      <c r="HS3" s="58"/>
+      <c r="HT3" s="58"/>
+      <c r="HU3" s="58"/>
+      <c r="HV3" s="58"/>
+      <c r="HW3" s="58"/>
+      <c r="HX3" s="58"/>
+      <c r="HY3" s="58"/>
+      <c r="HZ3" s="58"/>
+      <c r="IA3" s="58"/>
+      <c r="IB3" s="58"/>
+      <c r="IC3" s="58"/>
+      <c r="ID3" s="58"/>
+      <c r="IE3" s="58"/>
+      <c r="IF3" s="58"/>
+      <c r="IG3" s="58"/>
+      <c r="IH3" s="58"/>
+      <c r="II3" s="58"/>
+      <c r="IJ3" s="58"/>
+      <c r="IK3" s="58"/>
+      <c r="IL3" s="58"/>
+      <c r="IM3" s="58"/>
+      <c r="IN3" s="58"/>
+      <c r="IO3" s="58"/>
+      <c r="IP3" s="58"/>
+      <c r="IQ3" s="58"/>
+      <c r="IR3" s="58"/>
+      <c r="IS3" s="58"/>
+      <c r="IT3" s="58"/>
+      <c r="IU3" s="58"/>
+      <c r="IV3" s="58"/>
+      <c r="IW3" s="58"/>
+      <c r="IX3" s="58"/>
+      <c r="IY3" s="58"/>
+      <c r="IZ3" s="58"/>
+      <c r="JA3" s="58"/>
+      <c r="JB3" s="58"/>
+      <c r="JC3" s="58"/>
+      <c r="JD3" s="58"/>
+      <c r="JE3" s="58"/>
+      <c r="JF3" s="58"/>
+      <c r="JG3" s="58"/>
+      <c r="JH3" s="58"/>
+      <c r="JI3" s="58"/>
+      <c r="JJ3" s="58"/>
+      <c r="JK3" s="58"/>
+      <c r="JL3" s="58"/>
+      <c r="JM3" s="58"/>
+      <c r="JN3" s="58"/>
+      <c r="JO3" s="58"/>
+      <c r="JP3" s="58"/>
+      <c r="JQ3" s="58"/>
+      <c r="JR3" s="58"/>
+      <c r="JS3" s="58"/>
+      <c r="JT3" s="58"/>
+      <c r="JU3" s="58"/>
+      <c r="JV3" s="58"/>
+      <c r="JW3" s="58"/>
+      <c r="JX3" s="58"/>
+      <c r="JY3" s="58"/>
+      <c r="JZ3" s="58"/>
+      <c r="KA3" s="58"/>
+      <c r="KB3" s="58"/>
+      <c r="KC3" s="58"/>
+      <c r="KD3" s="58"/>
+      <c r="KE3" s="58"/>
+      <c r="KF3" s="58"/>
+      <c r="KG3" s="58"/>
+      <c r="KH3" s="58"/>
+      <c r="KI3" s="58"/>
+      <c r="KJ3" s="58"/>
+      <c r="KK3" s="58"/>
+      <c r="KL3" s="58"/>
+      <c r="KM3" s="58"/>
+      <c r="KN3" s="58"/>
+      <c r="KO3" s="58"/>
+      <c r="KP3" s="58"/>
+      <c r="KQ3" s="58"/>
+      <c r="KR3" s="58"/>
+      <c r="KS3" s="58"/>
+      <c r="KT3" s="58"/>
+      <c r="KU3" s="58"/>
+      <c r="KV3" s="58"/>
+      <c r="KW3" s="58"/>
+      <c r="KX3" s="58"/>
+      <c r="KY3" s="58"/>
+      <c r="KZ3" s="58"/>
+      <c r="LA3" s="58"/>
+      <c r="LB3" s="58"/>
+      <c r="LC3" s="58"/>
+      <c r="LD3" s="58"/>
+      <c r="LE3" s="58"/>
+      <c r="LF3" s="58"/>
+      <c r="LG3" s="58"/>
+      <c r="LH3" s="58"/>
+      <c r="LI3" s="58"/>
+      <c r="LJ3" s="58"/>
+      <c r="LK3" s="58"/>
+      <c r="LL3" s="58"/>
+      <c r="LM3" s="58"/>
+      <c r="LN3" s="58"/>
+      <c r="LO3" s="58"/>
+      <c r="LP3" s="58"/>
+      <c r="LQ3" s="58"/>
+      <c r="LR3" s="58"/>
+      <c r="LS3" s="58"/>
+      <c r="LT3" s="58"/>
+      <c r="LU3" s="58"/>
+      <c r="LV3" s="58"/>
+      <c r="LW3" s="58"/>
+      <c r="LX3" s="58"/>
+      <c r="LY3" s="58"/>
+      <c r="LZ3" s="58"/>
+      <c r="MA3" s="58"/>
+      <c r="MB3" s="58"/>
+      <c r="MC3" s="58"/>
+      <c r="MD3" s="58"/>
+      <c r="ME3" s="58"/>
+      <c r="MF3" s="58"/>
+      <c r="MG3" s="58"/>
+      <c r="MH3" s="58"/>
+      <c r="MI3" s="58"/>
+      <c r="MJ3" s="58"/>
+      <c r="MK3" s="58"/>
+      <c r="ML3" s="58"/>
+      <c r="MM3" s="58"/>
+      <c r="MN3" s="58"/>
+      <c r="MO3" s="58"/>
+      <c r="MP3" s="58"/>
+      <c r="MQ3" s="58"/>
+      <c r="MR3" s="58"/>
+      <c r="MS3" s="58"/>
+      <c r="MT3" s="58"/>
+      <c r="MU3" s="58"/>
+      <c r="MV3" s="58"/>
+      <c r="MW3" s="58"/>
+      <c r="MX3" s="58"/>
+      <c r="MY3" s="58"/>
+      <c r="MZ3" s="58"/>
+      <c r="NA3" s="58"/>
+      <c r="NB3" s="58"/>
+      <c r="NC3" s="58"/>
+      <c r="ND3" s="58"/>
+      <c r="NE3" s="58"/>
+      <c r="NF3" s="58"/>
+      <c r="NG3" s="58"/>
+      <c r="NH3" s="58"/>
+      <c r="NI3" s="58"/>
+      <c r="NJ3" s="58"/>
+      <c r="NK3" s="58"/>
+      <c r="NL3" s="58"/>
+      <c r="NM3" s="58"/>
+      <c r="NN3" s="58"/>
+      <c r="NO3" s="58"/>
+      <c r="NP3" s="58"/>
+      <c r="NQ3" s="58"/>
+      <c r="NR3" s="58"/>
+      <c r="NS3" s="58"/>
+      <c r="NT3" s="58"/>
+      <c r="NU3" s="58"/>
+      <c r="NV3" s="58"/>
+      <c r="NW3" s="58"/>
+      <c r="NX3" s="58"/>
+      <c r="NY3" s="58"/>
+      <c r="NZ3" s="58"/>
+      <c r="OA3" s="58"/>
+      <c r="OB3" s="58"/>
+      <c r="OC3" s="58"/>
+      <c r="OD3" s="58"/>
+      <c r="OE3" s="58"/>
+      <c r="OF3" s="58"/>
+      <c r="OG3" s="58"/>
+      <c r="OH3" s="58"/>
+      <c r="OI3" s="58"/>
+      <c r="OJ3" s="58"/>
+      <c r="OK3" s="58"/>
+      <c r="OL3" s="58"/>
+      <c r="OM3" s="58"/>
+      <c r="ON3" s="58"/>
+      <c r="OO3" s="58"/>
+      <c r="OP3" s="58"/>
+      <c r="OQ3" s="58"/>
+      <c r="OR3" s="58"/>
+      <c r="OS3" s="58"/>
+      <c r="OT3" s="58"/>
+      <c r="OU3" s="58"/>
+      <c r="OV3" s="58"/>
+      <c r="OW3" s="58"/>
+      <c r="OX3" s="58"/>
+      <c r="OY3" s="58"/>
+      <c r="OZ3" s="58"/>
+      <c r="PA3" s="58"/>
+      <c r="PB3" s="58"/>
+      <c r="PC3" s="58"/>
+      <c r="PD3" s="58"/>
+      <c r="PE3" s="58"/>
+      <c r="PF3" s="58"/>
+      <c r="PG3" s="58"/>
+      <c r="PH3" s="58"/>
+      <c r="PI3" s="58"/>
+      <c r="PJ3" s="58"/>
+      <c r="PK3" s="58"/>
+      <c r="PL3" s="58"/>
+      <c r="PM3" s="58"/>
+      <c r="PN3" s="58"/>
+      <c r="PO3" s="58"/>
+      <c r="PP3" s="58"/>
+      <c r="PQ3" s="58"/>
+      <c r="PR3" s="58"/>
+      <c r="PS3" s="58"/>
+      <c r="PT3" s="58"/>
+      <c r="PU3" s="58"/>
+      <c r="PV3" s="58"/>
+      <c r="PW3" s="58"/>
+      <c r="PX3" s="58"/>
+      <c r="PY3" s="58"/>
+      <c r="PZ3" s="58"/>
+      <c r="QA3" s="58"/>
+      <c r="QB3" s="58"/>
+      <c r="QC3" s="58"/>
+      <c r="QD3" s="58"/>
+      <c r="QE3" s="58"/>
+      <c r="QF3" s="58"/>
+      <c r="QG3" s="58"/>
+      <c r="QH3" s="58"/>
+      <c r="QI3" s="58"/>
+      <c r="QJ3" s="58"/>
+      <c r="QK3" s="58"/>
+      <c r="QL3" s="58"/>
+      <c r="QM3" s="58"/>
+      <c r="QN3" s="58"/>
+      <c r="QO3" s="58"/>
+      <c r="QP3" s="58"/>
+      <c r="QQ3" s="58"/>
+      <c r="QR3" s="58"/>
+      <c r="QS3" s="58"/>
+      <c r="QT3" s="58"/>
+      <c r="QU3" s="58"/>
+      <c r="QV3" s="58"/>
+      <c r="QW3" s="58"/>
+      <c r="QX3" s="58"/>
+      <c r="QY3" s="58"/>
+      <c r="QZ3" s="58"/>
+      <c r="RA3" s="58"/>
+      <c r="RB3" s="58"/>
+      <c r="RC3" s="58"/>
+      <c r="RD3" s="58"/>
+      <c r="RE3" s="58"/>
+      <c r="RF3" s="58"/>
+      <c r="RG3" s="58"/>
+      <c r="RH3" s="58"/>
+      <c r="RI3" s="58"/>
+      <c r="RJ3" s="58"/>
+      <c r="RK3" s="58"/>
+      <c r="RL3" s="58"/>
+      <c r="RM3" s="58"/>
+      <c r="RN3" s="58"/>
+      <c r="RO3" s="58"/>
+      <c r="RP3" s="58"/>
+      <c r="RQ3" s="58"/>
+      <c r="RR3" s="58"/>
+      <c r="RS3" s="58"/>
+      <c r="RT3" s="58"/>
+      <c r="RU3" s="58"/>
+      <c r="RV3" s="58"/>
+      <c r="RW3" s="58"/>
+      <c r="RX3" s="58"/>
+      <c r="RY3" s="58"/>
+      <c r="RZ3" s="58"/>
+      <c r="SA3" s="58"/>
+      <c r="SB3" s="58"/>
+      <c r="SC3" s="58"/>
+      <c r="SD3" s="58"/>
+      <c r="SE3" s="58"/>
+      <c r="SF3" s="58"/>
+      <c r="SG3" s="58"/>
+      <c r="SH3" s="58"/>
+      <c r="SI3" s="58"/>
+      <c r="SJ3" s="58"/>
+      <c r="SK3" s="58"/>
+      <c r="SL3" s="58"/>
+      <c r="SM3" s="58"/>
+      <c r="SN3" s="58"/>
+      <c r="SO3" s="58"/>
+      <c r="SP3" s="58"/>
+      <c r="SQ3" s="58"/>
+      <c r="SR3" s="58"/>
+      <c r="SS3" s="58"/>
+      <c r="ST3" s="58"/>
+      <c r="SU3" s="58"/>
+      <c r="SV3" s="58"/>
+      <c r="SW3" s="58"/>
+      <c r="SX3" s="58"/>
+      <c r="SY3" s="58"/>
+      <c r="SZ3" s="58"/>
+      <c r="TA3" s="58"/>
+      <c r="TB3" s="58"/>
+      <c r="TC3" s="58"/>
+      <c r="TD3" s="58"/>
+      <c r="TE3" s="58"/>
+      <c r="TF3" s="58"/>
+      <c r="TG3" s="58"/>
+      <c r="TH3" s="58"/>
+      <c r="TI3" s="58"/>
+      <c r="TJ3" s="58"/>
+      <c r="TK3" s="58"/>
+      <c r="TL3" s="58"/>
+      <c r="TM3" s="58"/>
+      <c r="TN3" s="58"/>
+      <c r="TO3" s="58"/>
+      <c r="TP3" s="58"/>
+      <c r="TQ3" s="58"/>
+      <c r="TR3" s="58"/>
+      <c r="TS3" s="58"/>
+      <c r="TT3" s="58"/>
+      <c r="TU3" s="58"/>
+      <c r="TV3" s="58"/>
+      <c r="TW3" s="58"/>
+      <c r="TX3" s="58"/>
+      <c r="TY3" s="58"/>
+      <c r="TZ3" s="58"/>
+      <c r="UA3" s="58"/>
+      <c r="UB3" s="58"/>
+      <c r="UC3" s="58"/>
+      <c r="UD3" s="58"/>
+      <c r="UE3" s="58"/>
+      <c r="UF3" s="58"/>
+      <c r="UG3" s="58"/>
+      <c r="UH3" s="58"/>
+      <c r="UI3" s="58"/>
+      <c r="UJ3" s="58"/>
+      <c r="UK3" s="58"/>
+      <c r="UL3" s="58"/>
+      <c r="UM3" s="58"/>
+      <c r="UN3" s="58"/>
+      <c r="UO3" s="58"/>
+      <c r="UP3" s="58"/>
+      <c r="UQ3" s="58"/>
+      <c r="UR3" s="58"/>
+      <c r="US3" s="58"/>
+      <c r="UT3" s="58"/>
+      <c r="UU3" s="58"/>
+      <c r="UV3" s="58"/>
+      <c r="UW3" s="58"/>
+      <c r="UX3" s="58"/>
+      <c r="UY3" s="58"/>
+      <c r="UZ3" s="58"/>
+      <c r="VA3" s="58"/>
+      <c r="VB3" s="58"/>
+      <c r="VC3" s="58"/>
+      <c r="VD3" s="58"/>
+      <c r="VE3" s="58"/>
+      <c r="VF3" s="58"/>
+      <c r="VG3" s="58"/>
+      <c r="VH3" s="58"/>
+      <c r="VI3" s="58"/>
+      <c r="VJ3" s="58"/>
+      <c r="VK3" s="58"/>
+      <c r="VL3" s="58"/>
+      <c r="VM3" s="58"/>
+      <c r="VN3" s="58"/>
+      <c r="VO3" s="58"/>
+      <c r="VP3" s="58"/>
+      <c r="VQ3" s="58"/>
+      <c r="VR3" s="58"/>
+      <c r="VS3" s="58"/>
+      <c r="VT3" s="58"/>
+      <c r="VU3" s="58"/>
+      <c r="VV3" s="58"/>
+      <c r="VW3" s="58"/>
+      <c r="VX3" s="58"/>
+      <c r="VY3" s="58"/>
+      <c r="VZ3" s="58"/>
+      <c r="WA3" s="58"/>
+      <c r="WB3" s="58"/>
+      <c r="WC3" s="58"/>
+      <c r="WD3" s="58"/>
+      <c r="WE3" s="58"/>
+      <c r="WF3" s="58"/>
+      <c r="WG3" s="58"/>
+      <c r="WH3" s="58"/>
+      <c r="WI3" s="58"/>
+      <c r="WJ3" s="58"/>
+      <c r="WK3" s="58"/>
+      <c r="WL3" s="58"/>
+      <c r="WM3" s="58"/>
+      <c r="WN3" s="58"/>
+      <c r="WO3" s="58"/>
+      <c r="WP3" s="58"/>
+      <c r="WQ3" s="58"/>
+      <c r="WR3" s="58"/>
+      <c r="WS3" s="58"/>
+      <c r="WT3" s="58"/>
+      <c r="WU3" s="58"/>
+      <c r="WV3" s="58"/>
+      <c r="WW3" s="58"/>
+      <c r="WX3" s="58"/>
+      <c r="WY3" s="58"/>
+      <c r="WZ3" s="58"/>
+      <c r="XA3" s="58"/>
+      <c r="XB3" s="58"/>
+      <c r="XC3" s="58"/>
+      <c r="XD3" s="58"/>
+      <c r="XE3" s="58"/>
+      <c r="XF3" s="58"/>
+      <c r="XG3" s="58"/>
+      <c r="XH3" s="58"/>
+      <c r="XI3" s="58"/>
+      <c r="XJ3" s="58"/>
+      <c r="XK3" s="58"/>
+      <c r="XL3" s="58"/>
+      <c r="XM3" s="58"/>
+      <c r="XN3" s="58"/>
+      <c r="XO3" s="58"/>
+      <c r="XP3" s="58"/>
+      <c r="XQ3" s="58"/>
+      <c r="XR3" s="58"/>
+      <c r="XS3" s="58"/>
+      <c r="XT3" s="58"/>
+      <c r="XU3" s="58"/>
+      <c r="XV3" s="58"/>
+      <c r="XW3" s="58"/>
+      <c r="XX3" s="58"/>
+      <c r="XY3" s="58"/>
+      <c r="XZ3" s="58"/>
+      <c r="YA3" s="58"/>
+      <c r="YB3" s="58"/>
+      <c r="YC3" s="58"/>
+      <c r="YD3" s="58"/>
+      <c r="YE3" s="58"/>
+      <c r="YF3" s="58"/>
+      <c r="YG3" s="58"/>
+      <c r="YH3" s="58"/>
+      <c r="YI3" s="58"/>
+      <c r="YJ3" s="58"/>
+      <c r="YK3" s="58"/>
+      <c r="YL3" s="58"/>
+      <c r="YM3" s="58"/>
+      <c r="YN3" s="58"/>
+      <c r="YO3" s="58"/>
+      <c r="YP3" s="58"/>
+      <c r="YQ3" s="58"/>
+      <c r="YR3" s="58"/>
+      <c r="YS3" s="58"/>
+      <c r="YT3" s="58"/>
+      <c r="YU3" s="58"/>
+      <c r="YV3" s="58"/>
+      <c r="YW3" s="58"/>
+      <c r="YX3" s="58"/>
+      <c r="YY3" s="58"/>
+      <c r="YZ3" s="58"/>
+      <c r="ZA3" s="58"/>
+      <c r="ZB3" s="58"/>
+      <c r="ZC3" s="58"/>
+      <c r="ZD3" s="58"/>
+      <c r="ZE3" s="58"/>
+      <c r="ZF3" s="58"/>
+      <c r="ZG3" s="58"/>
+      <c r="ZH3" s="58"/>
+      <c r="ZI3" s="58"/>
+      <c r="ZJ3" s="58"/>
+      <c r="ZK3" s="58"/>
+      <c r="ZL3" s="58"/>
+      <c r="ZM3" s="58"/>
+      <c r="ZN3" s="58"/>
+      <c r="ZO3" s="58"/>
+      <c r="ZP3" s="58"/>
+      <c r="ZQ3" s="58"/>
+      <c r="ZR3" s="58"/>
+      <c r="ZS3" s="58"/>
+      <c r="ZT3" s="58"/>
+      <c r="ZU3" s="58"/>
+      <c r="ZV3" s="58"/>
+      <c r="ZW3" s="58"/>
+      <c r="ZX3" s="58"/>
+      <c r="ZY3" s="58"/>
+      <c r="ZZ3" s="58"/>
+      <c r="AAA3" s="58"/>
+      <c r="AAB3" s="58"/>
+      <c r="AAC3" s="58"/>
+      <c r="AAD3" s="58"/>
+      <c r="AAE3" s="58"/>
+      <c r="AAF3" s="58"/>
+      <c r="AAG3" s="58"/>
+      <c r="AAH3" s="58"/>
+      <c r="AAI3" s="58"/>
+      <c r="AAJ3" s="58"/>
+      <c r="AAK3" s="58"/>
+      <c r="AAL3" s="58"/>
+      <c r="AAM3" s="58"/>
+      <c r="AAN3" s="58"/>
+      <c r="AAO3" s="58"/>
+      <c r="AAP3" s="58"/>
+      <c r="AAQ3" s="58"/>
+      <c r="AAR3" s="58"/>
+      <c r="AAS3" s="58"/>
+      <c r="AAT3" s="58"/>
+      <c r="AAU3" s="58"/>
+      <c r="AAV3" s="58"/>
+      <c r="AAW3" s="58"/>
+      <c r="AAX3" s="58"/>
+      <c r="AAY3" s="58"/>
+      <c r="AAZ3" s="58"/>
+      <c r="ABA3" s="58"/>
+      <c r="ABB3" s="58"/>
+      <c r="ABC3" s="58"/>
+      <c r="ABD3" s="58"/>
+      <c r="ABE3" s="58"/>
+      <c r="ABF3" s="58"/>
+      <c r="ABG3" s="58"/>
+      <c r="ABH3" s="58"/>
+      <c r="ABI3" s="58"/>
+      <c r="ABJ3" s="58"/>
+      <c r="ABK3" s="58"/>
+      <c r="ABL3" s="58"/>
+      <c r="ABM3" s="58"/>
+      <c r="ABN3" s="58"/>
+      <c r="ABO3" s="58"/>
+      <c r="ABP3" s="58"/>
+      <c r="ABQ3" s="58"/>
+      <c r="ABR3" s="58"/>
+      <c r="ABS3" s="58"/>
+      <c r="ABT3" s="58"/>
+      <c r="ABU3" s="58"/>
+      <c r="ABV3" s="58"/>
+      <c r="ABW3" s="58"/>
+      <c r="ABX3" s="58"/>
+      <c r="ABY3" s="58"/>
+      <c r="ABZ3" s="58"/>
+      <c r="ACA3" s="58"/>
+      <c r="ACB3" s="58"/>
+      <c r="ACC3" s="58"/>
+      <c r="ACD3" s="58"/>
+      <c r="ACE3" s="58"/>
+      <c r="ACF3" s="58"/>
+      <c r="ACG3" s="58"/>
+      <c r="ACH3" s="58"/>
+      <c r="ACI3" s="58"/>
+      <c r="ACJ3" s="58"/>
+      <c r="ACK3" s="58"/>
+      <c r="ACL3" s="58"/>
+      <c r="ACM3" s="58"/>
+      <c r="ACN3" s="58"/>
+      <c r="ACO3" s="58"/>
+      <c r="ACP3" s="58"/>
+      <c r="ACQ3" s="58"/>
+      <c r="ACR3" s="58"/>
+      <c r="ACS3" s="58"/>
+      <c r="ACT3" s="58"/>
+      <c r="ACU3" s="58"/>
+      <c r="ACV3" s="58"/>
+      <c r="ACW3" s="58"/>
+      <c r="ACX3" s="58"/>
+      <c r="ACY3" s="58"/>
+      <c r="ACZ3" s="58"/>
+      <c r="ADA3" s="58"/>
+      <c r="ADB3" s="58"/>
+      <c r="ADC3" s="58"/>
+      <c r="ADD3" s="58"/>
+      <c r="ADE3" s="58"/>
+      <c r="ADF3" s="58"/>
+      <c r="ADG3" s="58"/>
+      <c r="ADH3" s="58"/>
+      <c r="ADI3" s="58"/>
+      <c r="ADJ3" s="58"/>
+      <c r="ADK3" s="58"/>
+      <c r="ADL3" s="58"/>
+      <c r="ADM3" s="58"/>
+      <c r="ADN3" s="58"/>
+      <c r="ADO3" s="58"/>
+      <c r="ADP3" s="58"/>
+      <c r="ADQ3" s="58"/>
+      <c r="ADR3" s="58"/>
+      <c r="ADS3" s="58"/>
+      <c r="ADT3" s="58"/>
+      <c r="ADU3" s="58"/>
+      <c r="ADV3" s="58"/>
+      <c r="ADW3" s="58"/>
+      <c r="ADX3" s="58"/>
+      <c r="ADY3" s="58"/>
+      <c r="ADZ3" s="58"/>
+      <c r="AEA3" s="58"/>
+      <c r="AEB3" s="58"/>
+      <c r="AEC3" s="58"/>
+      <c r="AED3" s="58"/>
+      <c r="AEE3" s="58"/>
+      <c r="AEF3" s="58"/>
+      <c r="AEG3" s="58"/>
+      <c r="AEH3" s="58"/>
+      <c r="AEI3" s="58"/>
+      <c r="AEJ3" s="58"/>
+      <c r="AEK3" s="58"/>
+      <c r="AEL3" s="58"/>
+      <c r="AEM3" s="58"/>
+      <c r="AEN3" s="58"/>
+      <c r="AEO3" s="58"/>
+      <c r="AEP3" s="58"/>
+      <c r="AEQ3" s="58"/>
+      <c r="AER3" s="58"/>
+      <c r="AES3" s="58"/>
+      <c r="AET3" s="58"/>
+      <c r="AEU3" s="58"/>
+      <c r="AEV3" s="58"/>
+      <c r="AEW3" s="58"/>
+      <c r="AEX3" s="58"/>
+      <c r="AEY3" s="58"/>
+      <c r="AEZ3" s="58"/>
+      <c r="AFA3" s="58"/>
+      <c r="AFB3" s="58"/>
+      <c r="AFC3" s="58"/>
+      <c r="AFD3" s="58"/>
+      <c r="AFE3" s="58"/>
+      <c r="AFF3" s="58"/>
+      <c r="AFG3" s="58"/>
+      <c r="AFH3" s="58"/>
+      <c r="AFI3" s="58"/>
+      <c r="AFJ3" s="58"/>
+      <c r="AFK3" s="58"/>
+      <c r="AFL3" s="58"/>
+      <c r="AFM3" s="58"/>
+      <c r="AFN3" s="58"/>
+      <c r="AFO3" s="58"/>
+      <c r="AFP3" s="58"/>
+      <c r="AFQ3" s="58"/>
+      <c r="AFR3" s="58"/>
+      <c r="AFS3" s="58"/>
+      <c r="AFT3" s="58"/>
+      <c r="AFU3" s="58"/>
+      <c r="AFV3" s="58"/>
+      <c r="AFW3" s="58"/>
+      <c r="AFX3" s="58"/>
+      <c r="AFY3" s="58"/>
+      <c r="AFZ3" s="58"/>
+      <c r="AGA3" s="58"/>
+      <c r="AGB3" s="58"/>
+      <c r="AGC3" s="58"/>
+      <c r="AGD3" s="58"/>
+      <c r="AGE3" s="58"/>
+      <c r="AGF3" s="58"/>
+      <c r="AGG3" s="58"/>
+      <c r="AGH3" s="58"/>
+      <c r="AGI3" s="58"/>
+      <c r="AGJ3" s="58"/>
+      <c r="AGK3" s="58"/>
+      <c r="AGL3" s="58"/>
+      <c r="AGM3" s="58"/>
+      <c r="AGN3" s="58"/>
+      <c r="AGO3" s="58"/>
+      <c r="AGP3" s="58"/>
+      <c r="AGQ3" s="58"/>
+      <c r="AGR3" s="58"/>
+      <c r="AGS3" s="58"/>
+      <c r="AGT3" s="58"/>
+      <c r="AGU3" s="58"/>
+      <c r="AGV3" s="58"/>
+      <c r="AGW3" s="58"/>
+      <c r="AGX3" s="58"/>
+      <c r="AGY3" s="58"/>
+      <c r="AGZ3" s="58"/>
+      <c r="AHA3" s="58"/>
+      <c r="AHB3" s="58"/>
+      <c r="AHC3" s="58"/>
+      <c r="AHD3" s="58"/>
+      <c r="AHE3" s="58"/>
+      <c r="AHF3" s="58"/>
+      <c r="AHG3" s="58"/>
+      <c r="AHH3" s="58"/>
+      <c r="AHI3" s="58"/>
+      <c r="AHJ3" s="58"/>
+      <c r="AHK3" s="58"/>
+      <c r="AHL3" s="58"/>
+      <c r="AHM3" s="58"/>
+      <c r="AHN3" s="58"/>
+      <c r="AHO3" s="58"/>
+      <c r="AHP3" s="58"/>
+      <c r="AHQ3" s="58"/>
+      <c r="AHR3" s="58"/>
+      <c r="AHS3" s="58"/>
+      <c r="AHT3" s="58"/>
+      <c r="AHU3" s="58"/>
+      <c r="AHV3" s="58"/>
+      <c r="AHW3" s="58"/>
+      <c r="AHX3" s="58"/>
+      <c r="AHY3" s="58"/>
+      <c r="AHZ3" s="58"/>
+      <c r="AIA3" s="58"/>
+      <c r="AIB3" s="58"/>
+      <c r="AIC3" s="58"/>
+      <c r="AID3" s="58"/>
+      <c r="AIE3" s="58"/>
+      <c r="AIF3" s="58"/>
+      <c r="AIG3" s="58"/>
+      <c r="AIH3" s="58"/>
+      <c r="AII3" s="58"/>
+      <c r="AIJ3" s="58"/>
+      <c r="AIK3" s="58"/>
+      <c r="AIL3" s="58"/>
+      <c r="AIM3" s="58"/>
+      <c r="AIN3" s="58"/>
+      <c r="AIO3" s="58"/>
+      <c r="AIP3" s="58"/>
+      <c r="AIQ3" s="58"/>
+      <c r="AIR3" s="58"/>
+      <c r="AIS3" s="58"/>
+      <c r="AIT3" s="58"/>
+      <c r="AIU3" s="58"/>
+      <c r="AIV3" s="58"/>
+      <c r="AIW3" s="58"/>
+      <c r="AIX3" s="58"/>
+      <c r="AIY3" s="58"/>
+      <c r="AIZ3" s="58"/>
+      <c r="AJA3" s="58"/>
+      <c r="AJB3" s="58"/>
+      <c r="AJC3" s="58"/>
+      <c r="AJD3" s="58"/>
+      <c r="AJE3" s="58"/>
+      <c r="AJF3" s="58"/>
+      <c r="AJG3" s="58"/>
+      <c r="AJH3" s="58"/>
+      <c r="AJI3" s="58"/>
+      <c r="AJJ3" s="58"/>
+      <c r="AJK3" s="58"/>
+      <c r="AJL3" s="58"/>
+      <c r="AJM3" s="58"/>
+      <c r="AJN3" s="58"/>
+      <c r="AJO3" s="58"/>
+      <c r="AJP3" s="58"/>
+      <c r="AJQ3" s="58"/>
+      <c r="AJR3" s="58"/>
+      <c r="AJS3" s="58"/>
+      <c r="AJT3" s="58"/>
+      <c r="AJU3" s="58"/>
+      <c r="AJV3" s="58"/>
+      <c r="AJW3" s="58"/>
+      <c r="AJX3" s="58"/>
+      <c r="AJY3" s="58"/>
+      <c r="AJZ3" s="58"/>
+      <c r="AKA3" s="58"/>
+      <c r="AKB3" s="58"/>
+      <c r="AKC3" s="58"/>
+      <c r="AKD3" s="58"/>
+      <c r="AKE3" s="58"/>
+      <c r="AKF3" s="58"/>
+      <c r="AKG3" s="58"/>
+      <c r="AKH3" s="58"/>
+      <c r="AKI3" s="58"/>
+      <c r="AKJ3" s="58"/>
+      <c r="AKK3" s="58"/>
+      <c r="AKL3" s="58"/>
+      <c r="AKM3" s="58"/>
+      <c r="AKN3" s="58"/>
+      <c r="AKO3" s="58"/>
+      <c r="AKP3" s="58"/>
+      <c r="AKQ3" s="58"/>
+      <c r="AKR3" s="58"/>
+      <c r="AKS3" s="58"/>
+      <c r="AKT3" s="58"/>
+      <c r="AKU3" s="58"/>
+      <c r="AKV3" s="58"/>
+      <c r="AKW3" s="58"/>
+      <c r="AKX3" s="58"/>
+      <c r="AKY3" s="58"/>
+      <c r="AKZ3" s="58"/>
+      <c r="ALA3" s="58"/>
+      <c r="ALB3" s="58"/>
+      <c r="ALC3" s="58"/>
+      <c r="ALD3" s="58"/>
+      <c r="ALE3" s="58"/>
+      <c r="ALF3" s="58"/>
+      <c r="ALG3" s="58"/>
+      <c r="ALH3" s="58"/>
+      <c r="ALI3" s="58"/>
+      <c r="ALJ3" s="58"/>
+      <c r="ALK3" s="58"/>
+      <c r="ALL3" s="58"/>
+      <c r="ALM3" s="58"/>
+      <c r="ALN3" s="58"/>
+      <c r="ALO3" s="58"/>
+      <c r="ALP3" s="58"/>
+      <c r="ALQ3" s="58"/>
+      <c r="ALR3" s="58"/>
+      <c r="ALS3" s="58"/>
+      <c r="ALT3" s="58"/>
+      <c r="ALU3" s="58"/>
+      <c r="ALV3" s="58"/>
+      <c r="ALW3" s="58"/>
+      <c r="ALX3" s="58"/>
+      <c r="ALY3" s="58"/>
+      <c r="ALZ3" s="58"/>
+      <c r="AMA3" s="58"/>
+      <c r="AMB3" s="58"/>
+      <c r="AMC3" s="58"/>
+      <c r="AMD3" s="58"/>
+      <c r="AME3" s="58"/>
+      <c r="AMF3" s="58"/>
+      <c r="AMG3" s="58"/>
+      <c r="AMH3" s="58"/>
+      <c r="AMI3" s="58"/>
+      <c r="AMJ3" s="58"/>
+      <c r="AMK3" s="58"/>
+    </row>
+    <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="39" t="s">
         <v>3</v>
@@ -1353,7 +3422,7 @@
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="35" t="s">
         <v>5</v>
@@ -1363,7 +3432,7 @@
       </c>
       <c r="D6" s="36"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="40" t="s">
         <v>6</v>
@@ -1371,7 +3440,7 @@
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1025" ht="42" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="35" t="s">
         <v>0</v>
@@ -1381,15 +3450,15 @@
       </c>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="35" t="s">
         <v>9</v>
@@ -1399,7 +3468,7 @@
       </c>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="35" t="s">
         <v>10</v>
@@ -1409,7 +3478,7 @@
       </c>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="35" t="s">
         <v>11</v>
@@ -1419,7 +3488,7 @@
       </c>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="35" t="s">
         <v>12</v>
@@ -1429,7 +3498,7 @@
       </c>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="35" t="s">
         <v>106</v>
@@ -1439,15 +3508,15 @@
       </c>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="35" t="s">
         <v>14</v>
@@ -1483,17 +3552,17 @@
         <v>108</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1517,11 +3586,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="s">
@@ -1551,11 +3620,11 @@
       <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
@@ -1573,11 +3642,11 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -1589,11 +3658,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -1722,11 +3791,11 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="22" t="s">
@@ -1740,11 +3809,11 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="23" t="s">
@@ -1768,22 +3837,22 @@
       <c r="D53" s="27"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1793,22 +3862,22 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1818,17 +3887,17 @@
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="48"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1873,7 +3942,7 @@
       <c r="B70" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="42" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="34" t="s">
@@ -2337,18 +4406,7 @@
       <c r="I116" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B59:C60"/>
+  <mergeCells count="19">
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B27:D27"/>
@@ -2356,6 +4414,18 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -442,6 +442,18 @@
   </si>
   <si>
     <t>Registrados en herramienta mantis(Sin direccion fisica en archivos)</t>
+  </si>
+  <si>
+    <t>Minutas de cambios</t>
+  </si>
+  <si>
+    <t>Minuta_cambio-aammdd</t>
+  </si>
+  <si>
+    <t>Bitacora de respaldos</t>
+  </si>
+  <si>
+    <t>Bitacora de respaldos Base de datos</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -779,21 +791,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -901,6 +904,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -910,42 +961,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,26 +970,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1349,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK119"/>
+  <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1405,19 +1405,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2442,11 +2442,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3471,11 +3471,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3517,11 +3517,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3575,11 +3575,11 @@
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3623,11 +3623,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3651,11 +3651,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3685,11 +3685,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3707,11 +3707,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3723,11 +3723,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3799,287 +3799,282 @@
       </c>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="19" t="s">
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="19" t="s">
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" ht="42" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="42" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="58" t="s">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="68" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C49" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
+      <c r="D49" s="46"/>
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="63" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+    </row>
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="68"/>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D55" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="60" t="s">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="22" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+    </row>
+    <row r="57" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="46" t="s">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="26"/>
-    </row>
-    <row r="58" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="52" t="s">
+      <c r="C60" s="63"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="26"/>
-    </row>
-    <row r="59" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="26"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="49" t="s">
+      <c r="C61" s="57"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="26"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="56" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="23"/>
-    </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="51" t="s">
+      <c r="C65" s="60"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="50" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="23"/>
-    </row>
-    <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="6"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B70" s="31"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-    </row>
-    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="32" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A72" s="6"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+    </row>
+    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B73" s="31"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="C75" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D75" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="B73" s="33" t="s">
+    <row r="76" spans="1:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="B76" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C76" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D76" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="63" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
+    <row r="77" spans="1:9" ht="63" x14ac:dyDescent="0.2">
+      <c r="B77" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C77" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D77" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
@@ -4491,8 +4486,52 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B65:C66"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B1:D1"/>
@@ -4500,22 +4539,9 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C73" r:id="rId1"/>
+    <hyperlink ref="C76" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Bitacora de respaldos Base de datos</t>
+  </si>
+  <si>
+    <t>Respaldo</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -916,64 +919,73 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1405,19 +1417,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2442,11 +2454,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3471,11 +3483,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3517,11 +3529,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3575,11 +3587,11 @@
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3623,11 +3635,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3651,11 +3663,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3685,11 +3697,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3707,11 +3719,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3723,11 +3735,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3860,11 +3872,11 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
@@ -3881,32 +3893,32 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="50"/>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="68"/>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
@@ -3920,11 +3932,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
@@ -3948,22 +3960,22 @@
       <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="63"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="57"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3973,22 +3985,22 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="60"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -3998,17 +4010,17 @@
     </row>
     <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="55"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -4518,6 +4530,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B65:C66"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B27:D27"/>
@@ -4527,18 +4551,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -175,9 +175,6 @@
     <t>Al finalizar Planeación</t>
   </si>
   <si>
-    <t>Plan estratégico + Estimación + Catalogo de Servicios</t>
-  </si>
-  <si>
     <t>Mecanismos de respaldo de Datos</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>Respaldo</t>
+  </si>
+  <si>
+    <t>Plan estratégico + Estimación + Catalogo de Servicios+ Polizas de clientes</t>
   </si>
 </sst>
 </file>
@@ -925,6 +925,42 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -934,12 +970,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,36 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1417,19 +1417,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2454,11 +2454,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3483,11 +3483,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3529,11 +3529,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3541,7 +3541,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="35"/>
     </row>
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="35"/>
     </row>
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="35"/>
     </row>
@@ -3571,27 +3571,27 @@
         <v>12</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3626,20 +3626,20 @@
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3663,11 +3663,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3697,11 +3697,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3719,11 +3719,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3735,11 +3735,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3755,7 +3755,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -3764,7 +3764,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="15"/>
     </row>
@@ -3773,7 +3773,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="15"/>
     </row>
@@ -3782,16 +3782,16 @@
         <v>38</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -3807,16 +3807,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="D41" s="17"/>
     </row>
@@ -3833,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="20"/>
     </row>
@@ -3850,7 +3850,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="20"/>
     </row>
@@ -3867,23 +3867,23 @@
         <v>43</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
+      <c r="B48" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="48" t="s">
         <v>133</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>134</v>
       </c>
       <c r="D49" s="46"/>
     </row>
@@ -3894,17 +3894,17 @@
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="70"/>
       <c r="D51" s="71"/>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="50"/>
     </row>
@@ -3914,11 +3914,11 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
@@ -3932,11 +3932,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
     </row>
     <row r="57" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
@@ -3946,7 +3946,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3960,22 +3960,22 @@
       <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="26"/>
-    </row>
-    <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="63"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3985,22 +3985,22 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="55"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="66"/>
+      <c r="B65" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="62"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -4010,17 +4010,17 @@
     </row>
     <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="61"/>
+      <c r="B68" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="57"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="60"/>
+      <c r="B69" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="56"/>
       <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -4052,35 +4052,35 @@
     <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="D75" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="D75" s="32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84" x14ac:dyDescent="0.2">
       <c r="B76" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="33" t="s">
         <v>54</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="B77" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4530,18 +4530,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B65:C66"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B27:D27"/>
@@ -4551,6 +4539,18 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>
@@ -4583,36 +4583,36 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -4620,100 +4620,100 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="I9" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -4721,21 +4721,21 @@
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="J11">
         <v>51</v>
@@ -4743,13 +4743,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="I12" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="J12">
         <v>50</v>
@@ -4757,18 +4757,18 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -4778,12 +4778,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -420,9 +420,6 @@
     <t xml:space="preserve">Respaldos Se realizan cada semana en dias viernes, Dichos respaldos generan un comprimido semanal con los archivos agregados hasta la fecha y se versionan en el repositorio de GITHUB con el comentario 'respaldo de sistema' cuyo responsible de generar dicha actividad sera : Jovanny Zepeda </t>
   </si>
   <si>
-    <t>192.168.220.88/xampp/mantis(Red local qualtop)</t>
-  </si>
-  <si>
     <t>https://github.com/jovannyzepeda/qtp</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>Plan estratégico + Estimación + Catalogo de Servicios+ Polizas de clientes</t>
+  </si>
+  <si>
+    <t>via.esy.es/mantis</t>
   </si>
 </sst>
 </file>
@@ -925,68 +925,68 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1417,19 +1417,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2454,11 +2454,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3483,11 +3483,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3529,11 +3529,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3587,11 +3587,11 @@
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3629,17 +3629,17 @@
         <v>107</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3663,11 +3663,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3697,11 +3697,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3719,11 +3719,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3735,11 +3735,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3813,10 +3813,10 @@
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="D41" s="17"/>
     </row>
@@ -3872,18 +3872,18 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="48" t="s">
         <v>132</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>133</v>
       </c>
       <c r="D49" s="46"/>
     </row>
@@ -3893,18 +3893,18 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
+      <c r="B51" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" s="50"/>
     </row>
@@ -3914,11 +3914,11 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
@@ -3932,11 +3932,11 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
@@ -3946,7 +3946,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3960,22 +3960,22 @@
       <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="65"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3985,22 +3985,22 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="52"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -4010,17 +4010,17 @@
     </row>
     <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="57"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D76" s="33" t="s">
         <v>54</v>
@@ -4077,7 +4077,7 @@
         <v>125</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>55</v>
@@ -4530,6 +4530,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B65:C66"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B27:D27"/>
@@ -4539,18 +4551,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -457,6 +457,21 @@
   </si>
   <si>
     <t>via.esy.es/mantis</t>
+  </si>
+  <si>
+    <t>Plan estratégico + Estimación + Catalogo de Servicios+ Solicitud de cambios</t>
+  </si>
+  <si>
+    <t>Al generar un cambio</t>
+  </si>
+  <si>
+    <t>cambios</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Linea cambios</t>
   </si>
 </sst>
 </file>
@@ -595,7 +610,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +693,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCFE7F5"/>
       </patternFill>
     </fill>
   </fills>
@@ -799,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,6 +946,42 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -934,12 +991,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -949,9 +1000,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,32 +1009,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK122"/>
+  <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1417,19 +1441,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2454,11 +2478,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3483,11 +3507,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3529,11 +3553,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3587,11 +3611,11 @@
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3635,11 +3659,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3663,11 +3687,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3697,11 +3721,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3719,11 +3743,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3735,11 +3759,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3872,13 +3896,13 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+    </row>
+    <row r="49" spans="2:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
         <v>131</v>
       </c>
@@ -3887,19 +3911,19 @@
       </c>
       <c r="D49" s="46"/>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
     </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="60" t="s">
+    <row r="51" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-    </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+    </row>
+    <row r="52" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="50" t="s">
         <v>136</v>
       </c>
@@ -3908,19 +3932,19 @@
       </c>
       <c r="D52" s="50"/>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="49"/>
       <c r="C53" s="49"/>
       <c r="D53" s="49"/>
     </row>
-    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="55" t="s">
+    <row r="54" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+    </row>
+    <row r="55" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
         <v>45</v>
       </c>
@@ -3931,16 +3955,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
+    <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
-    </row>
-    <row r="57" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+    </row>
+    <row r="57" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>48</v>
@@ -3949,194 +3973,185 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+    </row>
+    <row r="61" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+    </row>
+    <row r="63" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="26"/>
-    </row>
-    <row r="61" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="65" t="s">
+      <c r="C65" s="65"/>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="26"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="55" t="s">
+      <c r="C66" s="59"/>
+      <c r="D66" s="26"/>
+    </row>
+    <row r="67" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="69" t="s">
+      <c r="C69" s="52"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="23"/>
-    </row>
-    <row r="67" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="64" t="s">
+      <c r="C70" s="62"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="63" t="s">
+      <c r="C73" s="57"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="23"/>
-    </row>
-    <row r="70" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="6"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-    </row>
-    <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B73" s="31"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="32" t="s">
+      <c r="C74" s="56"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="6"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B78" s="31"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C80" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D80" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="B76" s="33" t="s">
+    <row r="81" spans="2:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="B81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C81" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D81" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="63" x14ac:dyDescent="0.2">
-      <c r="B77" s="33" t="s">
+    <row r="82" spans="2:9" ht="63" x14ac:dyDescent="0.2">
+      <c r="B82" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C82" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D82" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
@@ -4528,8 +4543,74 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="B70:C71"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B1:D1"/>
@@ -4537,23 +4618,9 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B51:D51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C76" r:id="rId1"/>
+    <hyperlink ref="C81" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -610,7 +610,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,12 +693,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFCFE7F5"/>
       </patternFill>
     </fill>
   </fills>
@@ -820,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -946,71 +940,68 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1441,19 +1432,19 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="26"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2478,11 +2469,11 @@
     </row>
     <row r="3" spans="1:1025" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -3507,11 +3498,11 @@
     </row>
     <row r="4" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:1025" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3553,11 +3544,11 @@
     </row>
     <row r="9" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -3611,11 +3602,11 @@
     </row>
     <row r="15" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:1025" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -3659,11 +3650,11 @@
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -3687,11 +3678,11 @@
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
@@ -3721,11 +3712,11 @@
       <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
@@ -3743,11 +3734,11 @@
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
@@ -3759,11 +3750,11 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="18" t="s">
@@ -3896,11 +3887,11 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
     </row>
     <row r="49" spans="2:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
@@ -3917,11 +3908,11 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
     </row>
     <row r="52" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="50" t="s">
@@ -3938,11 +3929,11 @@
       <c r="D53" s="49"/>
     </row>
     <row r="54" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="55" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="21" t="s">
@@ -3956,11 +3947,11 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
@@ -3974,50 +3965,46 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
+      <c r="B58" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
+      <c r="B59" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="60" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-    </row>
-    <row r="61" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-    </row>
-    <row r="63" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>140</v>
-      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="26"/>
+    </row>
+    <row r="63" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="25"/>
@@ -4025,133 +4012,129 @@
       <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="26"/>
+      <c r="B66" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="60"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
-      <c r="B69" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="52"/>
+      <c r="B69" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="64"/>
       <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="62"/>
+      <c r="B70" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="63"/>
       <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
-      <c r="B73" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="23"/>
-    </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="23"/>
-    </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="B76" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="84" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B78" s="31"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="B77" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+      <c r="B78" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="63" x14ac:dyDescent="0.2">
-      <c r="B82" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
@@ -4554,9 +4537,6 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -4564,9 +4544,6 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -4574,9 +4551,6 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -4584,9 +4558,6 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -4594,9 +4565,21 @@
       <c r="I127" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="B66:C67"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B20:D20"/>
@@ -4604,23 +4587,10 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C81" r:id="rId1"/>
+    <hyperlink ref="C77" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>

--- a/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
+++ b/qualtcom/Organizacional/Configuracion/PlanConfiguración.xlsx
@@ -346,9 +346,6 @@
     <t>Acciones Correctivas</t>
   </si>
   <si>
-    <t>Acciones_Correctivas-aammdd</t>
-  </si>
-  <si>
     <t>Cronograma Auditorias</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>Plan estratégico + Estimación + Catalogo de Servicios+ Polizas de clientes</t>
   </si>
   <si>
-    <t>via.esy.es/mantis</t>
-  </si>
-  <si>
     <t>Plan estratégico + Estimación + Catalogo de Servicios+ Solicitud de cambios</t>
   </si>
   <si>
@@ -472,6 +466,12 @@
   </si>
   <si>
     <t>Linea cambios</t>
+  </si>
+  <si>
+    <t>http://via.esy.es/mantis</t>
+  </si>
+  <si>
+    <t>Acciones_Correctivas</t>
   </si>
 </sst>
 </file>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1441,7 @@
     <row r="2" spans="1:1025" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -3556,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="35"/>
     </row>
@@ -3566,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="35"/>
     </row>
@@ -3576,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="35"/>
     </row>
@@ -3586,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="35"/>
     </row>
@@ -3596,7 +3596,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D14" s="35"/>
     </row>
@@ -3641,10 +3641,10 @@
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="35"/>
     </row>
@@ -3770,7 +3770,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -3779,7 +3779,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="15"/>
     </row>
@@ -3788,7 +3788,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="15"/>
     </row>
@@ -3797,16 +3797,16 @@
         <v>38</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="D38" s="15"/>
     </row>
@@ -3822,16 +3822,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="D41" s="17"/>
     </row>
@@ -3848,7 +3848,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="20"/>
     </row>
@@ -3865,7 +3865,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="20"/>
     </row>
@@ -3882,23 +3882,23 @@
         <v>43</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
     </row>
     <row r="49" spans="2:4" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="48" t="s">
         <v>131</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>132</v>
       </c>
       <c r="D49" s="46"/>
     </row>
@@ -3909,17 +3909,17 @@
     </row>
     <row r="51" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="61"/>
       <c r="D51" s="62"/>
     </row>
     <row r="52" spans="2:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="50"/>
     </row>
@@ -3955,31 +3955,31 @@
     </row>
     <row r="57" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="57"/>
       <c r="D58" s="58"/>
     </row>
     <row r="59" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3989,14 +3989,14 @@
     </row>
     <row r="61" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="26"/>
     </row>
     <row r="62" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="66"/>
       <c r="D62" s="26"/>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="66" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="69"/>
       <c r="D66" s="23"/>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="23"/>
@@ -4093,7 +4093,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>54</v>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="B78" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>55</v>
@@ -4591,9 +4591,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C77" r:id="rId1"/>
+    <hyperlink ref="C78" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
